--- a/Secretarias/SIOP/SIOP_COMPLETO.xlsx
+++ b/Secretarias/SIOP/SIOP_COMPLETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\SIOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SIOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6571B8F-3736-47D0-9BC2-B2536BFC6ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD6A2A-2B45-4732-B039-6255EB1A040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{5E6818BE-F8DC-4B87-AA27-2526BCFD0125}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{5E6818BE-F8DC-4B87-AA27-2526BCFD0125}"/>
   </bookViews>
   <sheets>
     <sheet name="OBRAS2019" sheetId="4" r:id="rId1"/>
@@ -28,18 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="2289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="2561">
   <si>
     <t>ACAJETE</t>
   </si>
@@ -8578,9 +8572,6 @@
     <t>https://live.staticflickr.com/65535/53833686538_4b10b8a59d_k.jpg</t>
   </si>
   <si>
-    <t>HUATUSCO</t>
-  </si>
-  <si>
     <t>PAVIMENTO HIDRAULICO 3,450.00 M2</t>
   </si>
   <si>
@@ -8599,9 +8590,6 @@
     <t>https://live.staticflickr.com/65535/53833689813_7317e1086d_k.jpg</t>
   </si>
   <si>
-    <t>PUENTE NACIONAL</t>
-  </si>
-  <si>
     <t>PAVIMENTO HIDRAULICO 6,421.50 M2</t>
   </si>
   <si>
@@ -8629,9 +8617,6 @@
     <t>https://live.staticflickr.com/65535/53833887485_a201178914_h.jpg</t>
   </si>
   <si>
-    <t>VARIAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">743.00 ML DE PAVIMENTO HIDRÁULICO CON UN ANCHO PROMEDIO DE 8.00 M </t>
   </si>
   <si>
@@ -8668,9 +8653,6 @@
     <t>https://live.staticflickr.com/65535/53832543392_f90bd9af02_h.jpg</t>
   </si>
   <si>
-    <t>ZARAGOZA</t>
-  </si>
-  <si>
     <t xml:space="preserve">915.00 ML DE PAVIMENTO HIDRÁULICO CON UN ANCHO PROMEDIO DE 6.00 M </t>
   </si>
   <si>
@@ -8689,9 +8671,6 @@
     <t>https://live.staticflickr.com/65535/53833700178_cfb72c6302_k.jpg</t>
   </si>
   <si>
-    <t>ALAMO TEMAPACHE</t>
-  </si>
-  <si>
     <t>CONCRETO HIDRAULICO 9,079.62 M2</t>
   </si>
   <si>
@@ -8719,9 +8698,6 @@
     <t>https://live.staticflickr.com/65535/53820521781_5ee5ba974b_b.jpg</t>
   </si>
   <si>
-    <t>COATZINTLA</t>
-  </si>
-  <si>
     <t>CONCRETO HIDRAULICO 6,727.62 M2</t>
   </si>
   <si>
@@ -8740,9 +8716,6 @@
     <t>https://live.staticflickr.com/65535/53835643164_2944f88844_h.jpg</t>
   </si>
   <si>
-    <t>JALTIPAN DE MORELOS</t>
-  </si>
-  <si>
     <t>640.00 ML DE PAVIMENTO HIDRÁULICO CON UN ANCHO PROMEDIO DE 8.00 M</t>
   </si>
   <si>
@@ -8776,15 +8749,9 @@
     <t>Coscomatepec</t>
   </si>
   <si>
-    <t xml:space="preserve">Vega de Alatorre </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actopan </t>
   </si>
   <si>
-    <t xml:space="preserve">Alto Lucero de Gutiérrez Barrios </t>
-  </si>
-  <si>
     <t>5.54 KM</t>
   </si>
   <si>
@@ -8887,9 +8854,6 @@
     <t xml:space="preserve">1.62 KM </t>
   </si>
   <si>
-    <t>Las Vigas de Ramirez</t>
-  </si>
-  <si>
     <t>1.50 KM</t>
   </si>
   <si>
@@ -9401,16 +9365,870 @@
   </si>
   <si>
     <t>https://live.staticflickr.com/65535/53817902108_13b7331602_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE PRIVADA DE MARIANO MATAMOROS ENTRE CALLE MARIANO MATAMOROS Y PRIMAVERAS, EN LA LOCALIDAD DE XALAPA, MUNICIPIO DE XALAPA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043485953_f2a78afff0_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043239196_976cdc7781_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CAMINO DE ACCESO AL PLANTEL CECYTEV, TRAMO UNIVERSIDAD POLITÉCNICA DE HUATUSCO - PLANTEL CECYTEV,  EN LA LOCALIDAD DE HUATUSCO DE CHICUELLAR, MUNICIPIO DE HUATUSCO, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043493293_4ef214cccc_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE DIVISIÓN DEL NORTE ENTRE CALLE CIRILO CELIS PASTRANA Y GRACIANO VALENZUELA, INCLUYE SUBCOLECTOR PLUVIAL GRACIANO VALENZUELA Y SUBCOLECTOR PLUVIAL GALEANA, EN LA LOCALIDAD DE XALAPA, MUNICIPIO DE XALAPA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043695790_fecb36ea11.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042384582_daf3a46829_z.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CAMINO LA VEREDA ENTRE LA CARRETERA XALAPA-VERACRUZ Y LA CARRETERA XALAPA-VERACRUZ, CALLE ACCESO A LA HACIENDA ENTRE EL KM 0+000 Y EL KM 0+080, CALLE SIN NOMBRE ENTRE EL CAMINO LA VEREDA Y LA CARRETERA XALAPA-VERACRUZ, EN LA LOCALIDAD DE PUENTE NACIONAL, MUNICIPIO DE PUENTE NACIONAL, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042386777_a7d8d3e049_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042389257_3090104a17_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE 29 DE JUNIO ENTRE CALLE REFORMA Y EMILIANO ZAPATA; CALLE LUIS ECHEVERRÍA ÁLVAREZ ENTRE CALLE AMILIANO ZAPATA Y BANITO JUÁREZ GARCÍA; EN LA LOCALIDAD DE SAN PEDRO TLAPACOYAN, MUNICIPIO DE TLAPACOYAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54041793787_45c7929d2d_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE CARMEN VIVEROS ENTRE CALLE ROQUE ESPINOSO FOGLIA Y MIGUEL HIDALGO , EN LA LOCALIDAD DE ZEMPOALA, MUNICIPIO DE ÚRSULO GALVÁN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043257401_d49ccd23a6.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE RÍO COATZACOALCOS ENTRE CALLE RÍO BRAVO Y RÍO SUCHIATE, CALLE RÍO SUCHIATE ENTRE CALLE RÍO BRAVO Y CALLE FERNANDO MONTES DE OCA, EN LOCALIDADES VARIAS, MUNICIPIOS VARIOS, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043245076_18da71fc63_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE VENUSTIANO CARRANZA ENTRE CALLE BENITO JUÁREZ Y JOSÉ MARÍA MORELOS, EN LA LOCALIDAD DE ACULA, MUNICIPIO DE ACULA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043699450_730e51a999_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CAMINO ANTIGUO ESTANZUELA ENTRE CALLE COLIBRIES Y SAN PEDRO, CALLE SAN CARLOS ENTRE CALLE SAN PEDRO Y SAN FERNANDO, CALLE SAN FERNANDO ENTRE CALLE SAN CARLOS Y CALLE SANTA LUCIA, CALLE SANTA LUCIA ENTRE CALLE SAN FERNANDO Y CARRETERA COATEPEC-LAS TRANCAS, EN  LOCALIDADES VARIAS, MUNICIPIO DE EMILIANO ZAPATA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043708225_1e5dbaa295_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043712430_6229ee0d54_h.jpg</t>
+  </si>
+  <si>
+    <t>REHABILITACION DE PAVIMENTO HIDRÁULICO EN CALLE MELCHOR OCAMPO ENTRE CALLE SANTOS DEGOLLADO Y MIGUEL HIDALGO,  EN   LA LOCALIDAD  DE CIUDAD MENDOZA , MUNICIPIO DE CAMERINO Z. MENDOZA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043265041_f9a2c9a6e1_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO  EN CALLE NACIONAL ENTRE CALLE ALLENDE Y GALEANA; CALLE GALEANA ENTRE CALLE ÁLVARO OBREGÓN Y JUSTO SIERRA; CALLE JUSTO SIERRA  ENTRE CALLE GALEANA Y 26 DE ABRIL, EN   LA LOCALIDAD  DE ZARAGOZA , MUNICIPIO DE ZARAGOZA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042391562_0e768997b4_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE BENITO JUÁREZ ENTRE CALLE AGUSTIN DE ITURBIDE Y CRUZ ACOSTA DOMÍNGUEZ, EN   LA LOCALIDAD  DE MOZOMBOA , MUNICIPIO DE ACTOPAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043588954_5ced78b0a8_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043590269_7d7441d0ee_z.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE EMILIANO ZAPATA ENTRE CALLE IGNACIO ALLENDE Y CALLE VENUSTIANO CARRANZA, EN   LA LOCALIDAD  DE DOCTOR MONTES DE OCA (SAN ISIDRO) , MUNICIPIO DE ALAMO TEMAPACHE, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042875084_12ae900388_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE AGUSTÍN MELCHOR ENTRE CALLE FERNANDO GUTIERREZ BARRIOS Y BENITO JUÁREZ (INCLUYE OBRA MENOR DE DRENAJE), EN   LA LOCALIDAD  DE CHINAMECA , MUNICIPIO DE CHINAMECA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043708235_185b3b7573_h.jpg</t>
+  </si>
+  <si>
+    <t>REHABILITACIÓN DE PAVIMENTO HIDRÁULICO (TRAMOS AISLADOS) EN CARRETERA ESTATAL A ALLENDE ENTRE CARRETERA FEDERAL 180  Y CALLE NUEVE, CALLE NUEVE ENTRE CARRETERA ESTATAL A ALLENDE Y CALLE AL COMPLEJO PETROQUIMICO MORELOS, CALLE AL COMPLEJO PETROQUIMICO MORELOS ENTRE CALLE CUATRO Y CALLE GUTIÉRREZ ZAMORA, INCLUYE GASAS DE ACCESO A CARRETERA FEDERAL 180 Y OBRAS DE DRENAJE MENOR, EN LOCALIDADES DE VARIAS, MUNICIPIO DE COATZACOALCOS, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN BOULEVARD ADOLFO LÓPEZ MATEOS ENTRE CALLE EMILIO CARRANZA Y CALLE FRANCISCO VILLA ( SEGUDA ETAPA) INCLUYE DRENAJE PLUVIAL, EN   LA LOCALIDAD  DE COATZINTLA , MUNICIPIO DE COATZINTLA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042548646_49e95f70f6_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE ANDADORES GASTRONOMICOS SOBRE LA CARRETERA FED 180 ENTRE CALLE BENITO JUÁREZ Y CALLE FRANCISCO VILLA, EN   LA LOCALIDAD  DE EL VIEJON NUEVO, MUNICIPIO DE ACTOPAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>CONCRETO HIDRAULICO 12,414.00 M2</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043717675_20af3c2e87.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043592354_c7e00a55ab.jpg</t>
+  </si>
+  <si>
+    <t>MODERNIZACIÓN CON PAVIMENTO HIDRÁULICO EN AV. TRANSISTMICA ENTRE PUENTE VEHICULAR Y CALLE ANTIGUA AL BURRO; AV. MADERO ENTRE CALLE ANTIGUA AL BURRO Y TRANSISTMICA, EN   LA LOCALIDAD  DE AGUA DULCE, MUNICIPIO DE AGUA DULCE, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043712915_1799446209_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCION DE PAVIMENTO HIDRAULICO EN CALLE ARROYO OCOZUAPAN ENTRE CALLE ELEUTERIO IBARRA Y SONORA,  EN   LA LOCALIDAD  DE JALTIPAN DE MORELOS, MUNICIPIO DE JALTIPAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043524103_46fb911e9a_h.jpg</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO DE LA AV. BENITO JUÁREZ ENTRE CALLE GALEANA Y CALLE HEROICO COLEGIO MILITAR  (INCLUYE MANTENIMIENTO DE PUENTE TENECHACO), EN   LA LOCALIDAD  DE TUXPAM DE RODRIGUEZ CANO, MUNICIPIO DE TUXPAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043072685_0269b1c2b8_h.jpg</t>
+  </si>
+  <si>
+    <t>PAVIMENTO HIDRÁULICO EN CALLE DIEGO RIVERA ENTRE BOULEVARD TÚXPAM-BARRA DE TÚXPAM Y AV. FRANCISCO VILLA; CALLE LIBERTAD ENTRE LA AV. ADOLFO LÓPEZ MATEOS Y AV. CUAUHTÉMOC,  EN   LA LOCALIDAD  DE TUXPAM DE RODRIGUEZ CANO, MUNICIPIO DE TUXPAN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042802118_0987677d4e_b.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRAULICO EN CALLE MIGUEL HIDALGO Y COSTILLA ENTRE MIGUEL HIDALGO Y COSTILLA Y JOSÉ MARÍA PINO SUÁREZ; CALLE JOSÉ MARÍA MORELOS Y PAVÓN ENTRE CALLE AYUNTAMIENTO Y BENITO JUÁREZ; CALLE AYUNTAMIENTO DEL KM 0+000 AL KM 0+038; CALLE JOSÉ MARÍA PINO SUÁREZ ENTRE CALLE AYUNTAMIENTO Y MIGUEL HIDALGO Y COSTILLA,  EN   LA LOCALIDAD  DE TOTUTLA, MUNICIPIO DE TOTUTLA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>CONCRETO HIDRAULICO 3,724.00 M2</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043519668_1dd85e2419_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043724720_5f2f7b7420_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE QUINTA ETAPA DEL PANTEÓN FORENSE,   EN   LA LOCALIDAD  DE COATZACOALCOS, MUNICIPIO DE COATZACOALCOS, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>186 ML DE AGUA POTABLE, 1 PLANTA DE EMERGENCIA</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043733785_c28bfdf96a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043288146_c6a6623a5f_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO HIDRÁULICO EN CALLE RÍO COATZACOALCOS DEL KM 0+000 AL 0+191; CALLE RÍO GRIJALVA ENTRE RÍO TECOLUTLA Y CALLEJÓN GARDENIAS,  EN   LA LOCALIDAD  DE MINATITLÁN, MUNICIPIO DE MINATITLÁN, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE</t>
+  </si>
+  <si>
+    <t>4,979.22 M2 DE PAVIMENTO HIDRAULICO</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043636829_2c6c7ac93b_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043565623_c27e60ddf2_h.jpg</t>
+  </si>
+  <si>
+    <t>PAVIMENTACIÓN DEL CAMINO A LA MARTINICA DEL KM 0+000 AL 0+950, EN   LA LOCALIDAD  DE BANDERILLA, MUNICIPIO DE BANDERILLA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>AGUA POTABLE
+950 ML</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042414502_d5f942c37e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043728840_5e319d1864_b.jpg</t>
+  </si>
+  <si>
+    <t>REHABILITACIÓN DE PAVIMENTO HIDRÁULICO EN CALLE 5 DE MAYO, ENTRE CALLE BENITO JUÁREZ Y EMILIANO ZAPATA, CALLE ADALBERTO TEJEDA ENTRE CALLE 5 DE MAYO Y EMILIANO ZAPATA, CALLE EMILIANO ZAPATA ENTRE CALLE 5 DE MAYO Y ADALBERTO TEJEDA, EN LA LOCALIDAD DE RAFAEL LUCIO, MUNICIPIO DE RAFAEL LUCIO, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE</t>
+  </si>
+  <si>
+    <t>CONCRETO HIDRAULICO 2,853.00 M2</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043604194_349fe4cafe_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043283291_8ad332cf9b_h.jpg</t>
+  </si>
+  <si>
+    <t>PROYECTO INTEGRAL PARA EL MANTENIMIENTO Y RECONSTRUCCIÓN DEL BALNEARIO - MOCAMBO, EN LA LOCALIDAD DE VERACRUZ, MUNICIPIO DE BOCA DEL RÍO, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECONSTRUCCION DE BALNEARIO </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043533013_727f4addee_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043286246_8cb71f6b5d_h.jpg</t>
+  </si>
+  <si>
+    <t>PROYECTO INTEGRAL PARA LA CONSTRUCCIÓN DE PUENTE PEATONAL EN LA CARRETERA XALAPA - VERACRUZ, EN EL KM 6+040.00, EN LA LOCALIDAD DE TRES PASOS, MUNICIPIO DE EMILIANO ZAPATA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE</t>
+  </si>
+  <si>
+    <t>PUENTE PEATONAL DE 35.5 M DE CLARO</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042423552_8b7a8fbc9b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043611944_cadbd8e6f3_h.jpg</t>
+  </si>
+  <si>
+    <t>PAVIMENTO ASFALTICO DE 
+277 M3
+MURO DE MAMPOSTERIA DE
+778 M3</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043291776_0e07a17276_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043616264_da2e3ce84e_h.jpg</t>
+  </si>
+  <si>
+    <t>CONCRETO HIDRAULICO 1,855.00 M2</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042429997_b554cf3cee_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042431287_5a2d1b98f2_b.jpg</t>
+  </si>
+  <si>
+    <t>MODERNIZACIÓN DE LA CARRETERA ESTATAL POZA RICA-MARIA DE LA TORRE ENTRE CALLE FRANCISCO VILLA Y 5 DE MAYO, EN LA LOCALIDAD DE COATZINTLA, MUNICIPIO DE COATZINTLA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>1500.00 ML DE PAVIMENTO HIDRÁULICO CON UN ANCHO PROMEDIO DE 7.00 M</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042972014_b32df3134c_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54041685467_3d89e49f12_b.jpg</t>
+  </si>
+  <si>
+    <t>PAVIMENTO ASFALTICO DE 
+728 M2</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043624184_391b5c631f_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043750550_8d75ed3c00_h.jpg</t>
+  </si>
+  <si>
+    <t>PAVIMENTO ASFALTICO DE 
+309 ML</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043752740_bc665a749a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043305921_36c52b40a4_h.jpg</t>
+  </si>
+  <si>
+    <t>REHABILITACIÓN DE LOSAS DE CONCRETO HIDRÁULICO EN AV. MIGUEL HIDALGO ENTRE CARRETERA TRANSISMICA E IGNACIO ZARAGOZA,  EN LA LOCALIDAD DE COSOLEACAQUE, MUNICIPIO DE COSOLEACAQUE, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>1,435 M2 DE PAVIMENTO HIDRAULICO</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043575668_439fab1d3b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54043651694_69465eba8a_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE PAVIMENTO DE CONCRETO HIDRÁULICO EN CALLE VICENTE GUERRERO ENTRE CALLE JOSÉ MARÍA MORELOS Y PAVÓN Y NICOLÁS BRAVO; CALLE NICOLÁS BRAVO ENTRE CALLE VICENTE GUERRERO Y NEZAHUALCOYOTL; CALLE GLADIOLAS ENTRE CAMINO A LECHUGUILLAS Y CALLE ROSALES; CALLE IGNACIO ALLENDE ENTRE CALLE CONSTITUCIÓN Y MORELOS; CALLE ZARAGOZA ENTRE CALLE AL CAREY Y NACIONAL; CALLE AL CAREY ENTRE CALLE 16 DE SEPTIEMBRE Y 5 DE MAYO; INCLUYE ANDADOR EN CALLE I.C. HERRERA ENTRE CALLE INDEPENDENCIA Y 20 DE NOVIEMBRE, EN LOCALIDADES VARIAS, MUNICIPIO DE VEGA DE ALATORRE, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>725.00 ML DE PAVIMENTO HIDRÁULICO CON UN ANCHO PROMEDIO DE 7.85 M</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042947118_ef8059d44b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54042695221_a70c3ced80_h.jpg</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE OBRAS COMPLEMENTARIAS PARA LA AMPLIACIÓN DE LA CARRETERA XALAPA - VERACRUZ DEL KM 0+000 AL KM 5+000, EN LOCALIDADES VARIAS, MUNICIPIOS DE VARIOS, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO DE LA AV. LAZARO CARDENAS ENTRE AVENIDA XALAPA Y CALLE SUR 2; GRACIANO VALENZUELA Y RAFAEL VALENZUELA ENTRE CALLE MANUEL M. CONTRERAS Y RAFAEL  AGUIRRE CINTA;   Y MARGARITA OLIVO LARA ENTRE CALLE GRACIANO VALENZUELA Y RAFAEL VALENZUELA,  EN LA LOCALIDAD DE XALAPA, MUNICIPIO DE XALAPA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>RECONSTRUCCIÓN DE CARPETA ASFÁLTICA EN LA CALLE MARCO ANTONIO MUÑOZ ENTRE CALLE LÁZARO CARDENAS Y CHRISTIANE MAGNANI, EN LA LOCALIDAD LA LAGUNA Y MONTE DEL CASTILLO , MUNICIPIO DE MEDELLÍN DE BRAVO, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>RECONSTRUCCIÓN DE PAVIMENTO DE CONCRETO ASFÁLTICO EN CALLE GENERAL MIGUEL ALEMÁN ENTRE AV. MIGUEL HIDALGO Y MOCTEZUMA, EN LA LOCALIDAD DE OMEALCA, MUNICIPIO DE OMEALCA, DEL ESTADO DE VERACRUZ DE IGNACIO DE LA LLAVE.</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino El Espinal - Naolinco, del Km 0+000 al Km 3+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino Santa Rosa - Tozongo, del Km 0+000 al Km 1+800</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino E.C. (Carr. Fed. 180 - Paso del Toro) - El Chaparral, del Km 0+000 al Km 3+000</t>
+  </si>
+  <si>
+    <t>Mantenimiento del Camino Actopan - La Reforma, del Km 0+000 al Km 3+250</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino E.C. (Coacoatzintla - Jilotepec) Tlachinola - Mazcaya, del Km 1+500 al Km 2+800</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino Buenos Aires - Plan de la Vega, del Km 0+000 al Km 1+610</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. (Cerrillos de Díaz - La Reforma) - Cerro Gordo, del km 3+000 al km 8+540</t>
+  </si>
+  <si>
+    <t>Mantenimiento del Camino Misantla - Martinez de la Torre, del Km 0+000 al Km 38+100 (en tramos aislados)</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino Tenochtitlan - Misantla, del Km 0+000 al Km 2+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino Entabladero - Melchor Ocampo, del Km 2+400 al Km 4+100</t>
+  </si>
+  <si>
+    <t>Pavimentación del Camino Tepetlan - Mafafas, del Km 3+000 al Km 4+860</t>
+  </si>
+  <si>
+    <t>Pavimentación del libramiento de Pánuco, del km 0+000 al km 1+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Ángel R. Cabada - San Juan de los Reyes, del km 6+000 al km 7+910</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Carr. Fed. 150 Cumbres de Acultzingo - Macualtzingo - Vista Hermosa, del km 4+500 al km 6+260</t>
+  </si>
+  <si>
+    <t>Construcción del camino El Carril - Lindero Agua Fria del km 0+000 al km 1+150</t>
+  </si>
+  <si>
+    <t>Construcción del camino E.C. Carr. Fed 180 (Alazán - Canoas) - Cornizuelos, del km 0+000 al km 3+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. (Carlos A. Carrillo - La Loma) - Los Totoles, del km 2+100 al km 2+300</t>
+  </si>
+  <si>
+    <t>Construcción del camino Tepenacaxtla - Zapaltécatl, del km 0+000 al km 0+835, incluye 165 metros de acceso a la telesecundaria</t>
+  </si>
+  <si>
+    <t>Construcción del camino La Pedrera (Cuicuinaco) - El Tecomate, del km 4+900 al km 6+440</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Pajapan - Los Cerritos, del km 21+690 al km 23+690</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Cerro de Castro - Loma de Sogotegoyo, del km 0+000 al km 2+140</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Chogota - Ejido La Virgen, del km 0+130 al km 0+330, Incluye estructura</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino E.C. Carr. Fed. 150 - Mata de Uva, del km 1+900 al km 2+108, incluye estructuras en tramos aislados, carril izquierdo</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Carr. Fed. 180 (Túxpam - Tampico) - Los Potreros - Mamey La Mar, del km 5+000 al km 6+220</t>
+  </si>
+  <si>
+    <t>Construcción del camino Los Reyes - Instituto Tecnológico Superior de Zongolica - Amatitla, del km 0+666 al km 3+120</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino El Crucero - Nuevo Mazamila, del km 0+000 al km 2+000</t>
+  </si>
+  <si>
+    <t>Construcción del camino San Antonio -Zapaltécatl. del km 0+000 al km 1+000</t>
+  </si>
+  <si>
+    <t>Construcción del camino Los Pinos - Tambola, del km 0+000 al km 1+270</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Mozomboa - El Apartadero, del km 0+000 al km 5+120</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Yecuatla - La Victoria - Dos Caminos del km 0+000 al km 4+311.16</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino La Victoria - La Unión (kilometro 31), del km 10+000 al km 12+100</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino E.C. (Gildardo Muñoz) - Coatzintla, del km 3+700 al km 14+200</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Oluta - Texistepec, del km 0+000 al km 2+400</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Fed. 145 D (La Tinaja - Cosoleacaque) - Santiago Tuxtla, del km 0+000 al km 3+000</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Zempoala - Paso del Bobo, del km 0+000 al km 2+900</t>
+  </si>
+  <si>
+    <t>Mantenimiento de la carretera Fed. 140, tramo Banderilla - Xalapa, del km 145+930 al km 151+310</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino El Capricho - Comapa - Soledad de Doblado, del km 29+570 al km 31+570</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. (Venustiano Carranza) - Peña Hermosa del km 0+400 al km 2+060</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Fed. 180 (Paso del Toro - Acayucan) - San Juan Seco de Valencia, del km 0+000 al km 1+620</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino El Llanillo Redondo - Ingenio del Rosario, del km 0+000 al km 2+000</t>
+  </si>
+  <si>
+    <t>Construcción del camino Tlacolula - El Tordillo, del km 0+000 al km 1+500</t>
+  </si>
+  <si>
+    <t>Construcción del camino La Quinta - Xochitla, del km 0+000 al km 1+000</t>
+  </si>
+  <si>
+    <t>Construcción del camino El Rincón - Tepexapa, del km 0+000 al km 2+895.40</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Tatahuicapan - La Perla del Golfo, del km 8+180 al km 35+070 (tramos aislados)</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Juan Díaz Covarrubias - Cuatotolapan Estación (segunda etapa), del km 2+800 al km 5+640</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Fed. 180 (Túxpam - Tampico) - Juana Moza, del km 0+000 al km 2+340</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Tlapacoyan - Plan de Arroyos, del km 11+900 al km 13+400</t>
+  </si>
+  <si>
+    <t>Construcción de concreto hidráulico del camino La Defensa - El Atorón del km 0+000 al km 2+390</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Fed. 131 (Teziutlán - Perote) - Mixquiapan, del km 0+000 al km 1+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Orilla del Monte - Perote, del km 6+520 al km 7+723.70</t>
+  </si>
+  <si>
+    <t>Construcción del camino Cuxtepec - Quechulingo, del km 2+500 al km 3+000, incluye muros de contención</t>
+  </si>
+  <si>
+    <t>Coyutla</t>
+  </si>
+  <si>
+    <t>Pavimentación de los caminos: (camino Tulapilla - La Chaca, del km 0+000 al km 1+500), (camino E.C. (Rancho Alegre - Ricardo Flores Magón) - Calalco - Coyutla, del km 0+000 al km 1+500), (camino La Chaca - El Panorama - Cruz Verde, del km 3+450 al km 4+950) y del (camino Chicualoque - El Paso de Coyutla, del km 0+000 al km 1+500), con una meta total de 6.00 km</t>
+  </si>
+  <si>
+    <t>6.00 km</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. (Misantla - Martínez de la Torre) - Cártago, del km 0+000 al km 3+000</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Xoampolco - La Ventilla, del km 3+300 al km 4+840</t>
+  </si>
+  <si>
+    <t>1.54 KM</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Soyota - Ranchoapan, del km 0+000 al km 3+350</t>
+  </si>
+  <si>
+    <t>3.35 KM</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Ranchoapan - Soyata, del km 0+000 al km 3+330</t>
+  </si>
+  <si>
+    <t>3.33 KM</t>
+  </si>
+  <si>
+    <t>Construcción del camino Huitzila - Atexcalco, del km 0+000 al km 2+580</t>
+  </si>
+  <si>
+    <t>2.58 KM</t>
+  </si>
+  <si>
+    <t>Reconstrucción de carpeta asfáltica y obras complementarias: tramo carretero Vicente Guerrero - Temaxcalapa, del km 0+000 al km 3+500</t>
+  </si>
+  <si>
+    <t>3.5 KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconstrucción de la base hidráulica, carpeta asfáltica, obras complementarias y señalamiento: tramo carretero Las Choapas - km 8 - Nueva Esperanza (Cerro de Nanchital), del km 30+000 al km 39+000 </t>
+  </si>
+  <si>
+    <t>9.0 KM</t>
+  </si>
+  <si>
+    <t>Estudio, proyecto y reconstrucción del puente, puente "Las Lajas", sobre el camino Ignacio Zaragoza (El Chorro) - Las Lajas, km 0+580</t>
+  </si>
+  <si>
+    <t>40.0 M</t>
+  </si>
+  <si>
+    <t>Naranjal</t>
+  </si>
+  <si>
+    <t>Estudio, proyecto y reconstrucción del puente "Axalpa", sobre el camino: Tezizapa - Axalpa, km 0+030</t>
+  </si>
+  <si>
+    <t>30.0 M</t>
+  </si>
+  <si>
+    <t>Estudio, proyecto y reconstrucción del puente, puente "S/N", sobre el camino Tuzamapan - Vaquería, km 2+500</t>
+  </si>
+  <si>
+    <t>20.0 M</t>
+  </si>
+  <si>
+    <t>Estudio, proyecto y reconstrucción del puente, puente "S/N", sobre el camino Bocanita de la Esperanza - El Limón - Puente Rebelde, km 13+500</t>
+  </si>
+  <si>
+    <t>100.0 M</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Nanchital de Lázaro Cárdenas del Río - Paso Nuevo, del km 4+432 al km 9+232</t>
+  </si>
+  <si>
+    <t>Mantenimiento de la primera etapa del libramiento de Coatepec, del km 0+000 al km 5+560, incluye gasas de acceso, en tramos aislados</t>
+  </si>
+  <si>
+    <t>6.60 KM</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Consolapan - Cuauhtémoc - Cinco Palos, del km 0+000 al km 4+200 (en tramos aislado)</t>
+  </si>
+  <si>
+    <t>4.20 KM</t>
+  </si>
+  <si>
+    <t>Zontecomatlan</t>
+  </si>
+  <si>
+    <t>Mantenimiento del camino Huayacocotla - Zontecomatlán de López y Fuentes, del km 35+600 al km 41+100</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino Ángel R. Cabada - Chonegal, del km 0+000 al km 0+520</t>
+  </si>
+  <si>
+    <t>520 MTS</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino El Pueblito (Garbanzal) - La Concepción del km 1+850 al km 4+240</t>
+  </si>
+  <si>
+    <t>2.39 KM</t>
+  </si>
+  <si>
+    <t>Nautla</t>
+  </si>
+  <si>
+    <t>Pavimentación del camino E.C. Carr. Fed. 180, tramo Poza Rica - Veracruz y el camino de acceso al hospital "Dr. Gerardo Díaz Morales", del km 0+000 al km 0+194, incluye obras complementarias</t>
+  </si>
+  <si>
+    <t>492.23 MTS</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034325688_23994158ab_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54033101302_b8f620f58b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025463762_489a07786d_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024355096_b45f21acdc_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54023468272_925fdec9a0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026158681_ee4d91561e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025267722_ceb998d065_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54037122882_3b3fc0f149_c.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026802549_2f8605cc76_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026404468_c67b857a62_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54035771456_4d495d43c5_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034925237_cb91f97165_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026860780_0d3cdc9831_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026358036_311d8a9e11_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026685474_e869e515b2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034414574_bd6aeeb483_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026395324_1b60e63695_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026412865_14fa98013d_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54036185784_35f9526eca_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024816480_147c85715c_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025529882_45436cc9e4_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024737820_981288108a_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024663465_d8d830fcff_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024562748_5a2d769c1b_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034281549_3d26af94af_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026748724_a1fcf30d59_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026690173_793baa05f7_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034305393_afa48fd2ae_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026692038_c6621a9e68_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024348046_4983e3dec5_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024642579_756858febf_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54023439807_74a697238d_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026584803_b1671057d1_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026452016_e1c205b7f5_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026712868_f9d284152b_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026321824_fb0f54b4fe_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025260572_a5ca72fb29_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026697268_4efb518434_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026418506_3fe57543da_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54036013363_11ce797065_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026463104_36e793c572_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026400279_358556826a_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034544830_005a65cbbf_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54036048738_bce8a3d654_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025256017_ff6567d9e8_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026483969_086584904e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026578968_2938599d98_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026587838_ccf0b98a05_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034504650_daf3d14bcc_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54033201267_748450fb2a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026324370_fc9b59fa10_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54038318004_cc30ed4e77_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026653428_4602c555a4_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54036229695_6ba4b1d931_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54035780886_3a9edf1243_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026185453_bd415673e9_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54038000316_6019789091_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54023459197_4ff637dbcf_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025955916_aa48e1fd3a_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034284804_6fa2e35ccc_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54036081283_15d7fe7c66_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54037137222_122cc11feb_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54024695059_f1f9fcc4e3_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034402979_9f71d48092_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034410525_918ebfeb3a_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54034414460_eefb5a163e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026590113_91a0d789e8_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54025461722_8717bf36e0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54026667704_58cd15d4ea_k.jpg</t>
+  </si>
+  <si>
+    <t>Huatusco</t>
+  </si>
+  <si>
+    <t>Puente Nacional</t>
+  </si>
+  <si>
+    <t>Tlapacoyan</t>
+  </si>
+  <si>
+    <t>Varias</t>
+  </si>
+  <si>
+    <t>Acula</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Chinameca</t>
+  </si>
+  <si>
+    <t>Jaltipan De Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vega De Alatorre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto Lucero De Gutiérrez Barrios </t>
+  </si>
+  <si>
+    <t>Hueyapan De Ocampo</t>
+  </si>
+  <si>
+    <t>Tatahuicapan De Juárez</t>
+  </si>
+  <si>
+    <t>Las Vigas De Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minatitlán </t>
+  </si>
+  <si>
+    <t>Rafael Lucio</t>
+  </si>
+  <si>
+    <t>Medellin De Bravo</t>
+  </si>
+  <si>
+    <t>Cosoleacaque</t>
+  </si>
+  <si>
+    <t>Martínez De La Torre</t>
+  </si>
+  <si>
+    <t>Nanchital De Lazaro Cardenas Del Rio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9515,6 +10333,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -9590,7 +10415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -9658,6 +10483,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9665,7 +10512,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9867,7 +10714,61 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10193,15 +11094,15 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="13"/>
-    <col min="3" max="4" width="26.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="2" width="11.44140625" style="13"/>
+    <col min="3" max="4" width="26.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="61.109375" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
@@ -10308,7 +11209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5">
+    <row r="5" spans="1:8" ht="27.6">
       <c r="A5" s="8">
         <v>30030</v>
       </c>
@@ -10360,7 +11261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5">
+    <row r="7" spans="1:8" ht="27.6">
       <c r="A7" s="8">
         <v>30039</v>
       </c>
@@ -10386,7 +11287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="27.6">
       <c r="A8" s="8">
         <v>30061</v>
       </c>
@@ -10412,7 +11313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="27.6">
       <c r="A9" s="8">
         <v>30065</v>
       </c>
@@ -10438,7 +11339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="27.6">
       <c r="A10" s="8">
         <v>30073</v>
       </c>
@@ -10464,7 +11365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51">
+    <row r="11" spans="1:8" ht="55.2">
       <c r="A11" s="8">
         <v>30074</v>
       </c>
@@ -10646,7 +11547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
+    <row r="18" spans="1:8" ht="27.6">
       <c r="A18" s="8">
         <v>30152</v>
       </c>
@@ -10750,7 +11651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.5">
+    <row r="22" spans="1:8" ht="41.4">
       <c r="A22" s="8">
         <v>30209</v>
       </c>
@@ -10838,16 +11739,16 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
@@ -10876,7 +11777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="2">
         <v>30004</v>
       </c>
@@ -10902,7 +11803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="2">
         <v>30014</v>
       </c>
@@ -10928,7 +11829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="2">
         <v>30016</v>
       </c>
@@ -10954,7 +11855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="2">
         <v>30021</v>
       </c>
@@ -10980,7 +11881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="2">
         <v>30023</v>
       </c>
@@ -11006,7 +11907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="2">
         <v>30028</v>
       </c>
@@ -11032,7 +11933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="2">
         <v>30032</v>
       </c>
@@ -11058,7 +11959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="2">
         <v>30045</v>
       </c>
@@ -11084,7 +11985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="2">
         <v>30047</v>
       </c>
@@ -11110,7 +12011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="2">
         <v>30072</v>
       </c>
@@ -11136,7 +12037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="2">
         <v>30077</v>
       </c>
@@ -11162,7 +12063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="2">
         <v>30087</v>
       </c>
@@ -11188,7 +12089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="2">
         <v>30087</v>
       </c>
@@ -11214,7 +12115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="2">
         <v>30114</v>
       </c>
@@ -11240,7 +12141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="2">
         <v>30143</v>
       </c>
@@ -11266,7 +12167,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="2">
         <v>30151</v>
       </c>
@@ -11292,7 +12193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="2">
         <v>30153</v>
       </c>
@@ -11318,7 +12219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="2">
         <v>30192</v>
       </c>
@@ -11344,7 +12245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="2">
         <v>30193</v>
       </c>
@@ -11370,7 +12271,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.4">
       <c r="A21" s="2">
         <v>30198</v>
       </c>
@@ -11396,7 +12297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.4">
       <c r="A22" s="2">
         <v>30205</v>
       </c>
@@ -11422,7 +12323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="14.4">
       <c r="A23" s="2">
         <v>30209</v>
       </c>
@@ -11518,20 +12419,20 @@
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="17"/>
+    <col min="4" max="4" width="30.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="17"/>
     <col min="7" max="7" width="67" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="17"/>
+    <col min="8" max="8" width="66.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27.6">
       <c r="A1" s="16" t="s">
         <v>122</v>
       </c>
@@ -11557,7 +12458,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="87">
+    <row r="2" spans="1:8" ht="86.4">
       <c r="A2" s="18">
         <v>30066</v>
       </c>
@@ -11583,7 +12484,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="87">
+    <row r="3" spans="1:8" ht="86.4">
       <c r="A3" s="18">
         <v>30067</v>
       </c>
@@ -11609,7 +12510,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="87.75">
+    <row r="4" spans="1:8" ht="87">
       <c r="A4" s="18">
         <v>30064</v>
       </c>
@@ -11635,7 +12536,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75">
+    <row r="5" spans="1:8" ht="74.400000000000006">
       <c r="A5" s="18">
         <v>30067</v>
       </c>
@@ -11661,7 +12562,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="99">
+    <row r="6" spans="1:8" ht="98.4">
       <c r="A6" s="18">
         <v>30204</v>
       </c>
@@ -11713,7 +12614,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63">
+    <row r="8" spans="1:8" ht="62.4">
       <c r="A8" s="18">
         <v>30159</v>
       </c>
@@ -11739,7 +12640,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="75">
+    <row r="9" spans="1:8" ht="74.400000000000006">
       <c r="A9" s="18">
         <v>30201</v>
       </c>
@@ -11791,7 +12692,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="74.25">
+    <row r="11" spans="1:8" ht="73.8">
       <c r="A11" s="18">
         <v>30083</v>
       </c>
@@ -11817,7 +12718,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63">
+    <row r="12" spans="1:8" ht="62.4">
       <c r="A12" s="18">
         <v>30194</v>
       </c>
@@ -11843,7 +12744,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="99.75">
+    <row r="13" spans="1:8" ht="99">
       <c r="A13" s="18">
         <v>30067</v>
       </c>
@@ -11999,7 +12900,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="75">
+    <row r="19" spans="1:8" ht="74.400000000000006">
       <c r="A19" s="18">
         <v>30124</v>
       </c>
@@ -12025,7 +12926,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="75.75">
+    <row r="20" spans="1:8" ht="75">
       <c r="A20" s="18">
         <v>30209</v>
       </c>
@@ -12181,7 +13082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75">
+    <row r="26" spans="1:8" ht="74.400000000000006">
       <c r="A26" s="18">
         <v>30039</v>
       </c>
@@ -12233,7 +13134,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="63">
+    <row r="28" spans="1:8" ht="62.4">
       <c r="A28" s="18">
         <v>30087</v>
       </c>
@@ -12311,7 +13212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="63">
+    <row r="31" spans="1:8" ht="62.4">
       <c r="A31" s="18">
         <v>30076</v>
       </c>
@@ -12337,7 +13238,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="63">
+    <row r="32" spans="1:8" ht="62.4">
       <c r="A32" s="18">
         <v>30154</v>
       </c>
@@ -12363,7 +13264,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="63">
+    <row r="33" spans="1:8" ht="62.4">
       <c r="A33" s="18">
         <v>30121</v>
       </c>
@@ -12389,7 +13290,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="75">
+    <row r="34" spans="1:8" ht="74.400000000000006">
       <c r="A34" s="18">
         <v>30065</v>
       </c>
@@ -12415,7 +13316,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="63">
+    <row r="35" spans="1:8" ht="62.4">
       <c r="A35" s="18">
         <v>30011</v>
       </c>
@@ -12441,7 +13342,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="87">
+    <row r="36" spans="1:8" ht="86.4">
       <c r="A36" s="18">
         <v>30083</v>
       </c>
@@ -12467,7 +13368,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="62.25">
+    <row r="37" spans="1:8" ht="61.8">
       <c r="A37" s="18">
         <v>30147</v>
       </c>
@@ -12545,7 +13446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="63">
+    <row r="40" spans="1:8" ht="62.4">
       <c r="A40" s="18">
         <v>30058</v>
       </c>
@@ -12571,7 +13472,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="63">
+    <row r="41" spans="1:8" ht="62.4">
       <c r="A41" s="18">
         <v>30201</v>
       </c>
@@ -12597,7 +13498,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="63">
+    <row r="42" spans="1:8" ht="62.4">
       <c r="A42" s="18">
         <v>30059</v>
       </c>
@@ -12623,7 +13524,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="63">
+    <row r="43" spans="1:8" ht="62.4">
       <c r="A43" s="18">
         <v>30055</v>
       </c>
@@ -12753,7 +13654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="38.25">
+    <row r="48" spans="1:8" ht="37.799999999999997">
       <c r="A48" s="18">
         <v>30129</v>
       </c>
@@ -12805,7 +13706,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="98.25">
+    <row r="50" spans="1:8" ht="97.8">
       <c r="A50" s="18">
         <v>30108</v>
       </c>
@@ -12857,7 +13758,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="87.75">
+    <row r="52" spans="1:8" ht="87">
       <c r="A52" s="18">
         <v>30093</v>
       </c>
@@ -12883,7 +13784,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="61.5">
+    <row r="53" spans="1:8" ht="61.2">
       <c r="A53" s="18">
         <v>30023</v>
       </c>
@@ -12961,7 +13862,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="62.25">
+    <row r="56" spans="1:8" ht="61.8">
       <c r="A56" s="18">
         <v>30042</v>
       </c>
@@ -13065,7 +13966,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="75">
+    <row r="60" spans="1:8" ht="74.400000000000006">
       <c r="A60" s="18">
         <v>30102</v>
       </c>
@@ -13091,7 +13992,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="75">
+    <row r="61" spans="1:8" ht="74.400000000000006">
       <c r="A61" s="18">
         <v>30130</v>
       </c>
@@ -13169,7 +14070,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="75">
+    <row r="64" spans="1:8" ht="74.400000000000006">
       <c r="A64" s="18">
         <v>30061</v>
       </c>
@@ -13195,7 +14096,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="63">
+    <row r="65" spans="1:8" ht="62.4">
       <c r="A65" s="18">
         <v>30180</v>
       </c>
@@ -13273,7 +14174,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="62.25">
+    <row r="68" spans="1:8" ht="61.8">
       <c r="A68" s="18">
         <v>30201</v>
       </c>
@@ -13351,7 +14252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="62.25">
+    <row r="71" spans="1:8" ht="61.8">
       <c r="A71" s="18">
         <v>30124</v>
       </c>
@@ -13403,7 +14304,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="63">
+    <row r="73" spans="1:8" ht="62.4">
       <c r="A73" s="18">
         <v>30075</v>
       </c>
@@ -13455,7 +14356,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="63">
+    <row r="75" spans="1:8" ht="62.4">
       <c r="A75" s="18">
         <v>30032</v>
       </c>
@@ -13481,7 +14382,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="111.75">
+    <row r="76" spans="1:8" ht="111">
       <c r="A76" s="18">
         <v>30067</v>
       </c>
@@ -13533,7 +14434,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="63">
+    <row r="78" spans="1:8" ht="62.4">
       <c r="A78" s="18">
         <v>30182</v>
       </c>
@@ -13559,7 +14460,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="62.25">
+    <row r="79" spans="1:8" ht="61.8">
       <c r="A79" s="18">
         <v>30054</v>
       </c>
@@ -13585,7 +14486,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="63">
+    <row r="80" spans="1:8" ht="62.4">
       <c r="A80" s="18">
         <v>30168</v>
       </c>
@@ -13637,7 +14538,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="75.75">
+    <row r="82" spans="1:8" ht="75">
       <c r="A82" s="18">
         <v>30009</v>
       </c>
@@ -13689,7 +14590,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="63">
+    <row r="84" spans="1:8" ht="62.4">
       <c r="A84" s="18">
         <v>30141</v>
       </c>
@@ -13715,7 +14616,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="99">
+    <row r="85" spans="1:8" ht="98.4">
       <c r="A85" s="18">
         <v>30066</v>
       </c>
@@ -13741,7 +14642,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="63">
+    <row r="86" spans="1:8" ht="62.4">
       <c r="A86" s="18">
         <v>30122</v>
       </c>
@@ -13819,7 +14720,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="99">
+    <row r="89" spans="1:8" ht="98.4">
       <c r="A89" s="18">
         <v>30108</v>
       </c>
@@ -13845,7 +14746,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="75">
+    <row r="90" spans="1:8" ht="74.400000000000006">
       <c r="A90" s="18">
         <v>30124</v>
       </c>
@@ -13871,7 +14772,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="62.25">
+    <row r="91" spans="1:8" ht="61.8">
       <c r="A91" s="18">
         <v>30189</v>
       </c>
@@ -13923,7 +14824,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="74.25">
+    <row r="93" spans="1:8" ht="73.8">
       <c r="A93" s="18">
         <v>30147</v>
       </c>
@@ -13949,7 +14850,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="75">
+    <row r="94" spans="1:8" ht="74.400000000000006">
       <c r="A94" s="18">
         <v>30078</v>
       </c>
@@ -13975,7 +14876,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="75.75">
+    <row r="95" spans="1:8" ht="75">
       <c r="A95" s="18">
         <v>30004</v>
       </c>
@@ -14079,7 +14980,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="74.25">
+    <row r="99" spans="1:8" ht="73.8">
       <c r="A99" s="18">
         <v>30038</v>
       </c>
@@ -14105,7 +15006,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="37.5">
+    <row r="100" spans="1:8" ht="37.200000000000003">
       <c r="A100" s="18">
         <v>30061</v>
       </c>
@@ -14131,7 +15032,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="62.25">
+    <row r="101" spans="1:8" ht="61.8">
       <c r="A101" s="18">
         <v>30201</v>
       </c>
@@ -14157,7 +15058,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="63">
+    <row r="102" spans="1:8" ht="62.4">
       <c r="A102" s="18">
         <v>30013</v>
       </c>
@@ -14183,7 +15084,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="63">
+    <row r="103" spans="1:8" ht="62.4">
       <c r="A103" s="18">
         <v>30174</v>
       </c>
@@ -14209,7 +15110,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="86.25">
+    <row r="104" spans="1:8" ht="85.8">
       <c r="A104" s="18">
         <v>30204</v>
       </c>
@@ -14339,7 +15240,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="98.25">
+    <row r="109" spans="1:8" ht="97.8">
       <c r="A109" s="18">
         <v>30108</v>
       </c>
@@ -14365,7 +15266,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="62.25">
+    <row r="110" spans="1:8" ht="61.8">
       <c r="A110" s="18">
         <v>30090</v>
       </c>
@@ -14391,7 +15292,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="63">
+    <row r="111" spans="1:8" ht="62.4">
       <c r="A111" s="18">
         <v>30135</v>
       </c>
@@ -14417,7 +15318,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="63">
+    <row r="112" spans="1:8" ht="62.4">
       <c r="A112" s="18">
         <v>30061</v>
       </c>
@@ -14573,7 +15474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="120">
+    <row r="118" spans="1:8" ht="86.4">
       <c r="A118" s="43">
         <v>30034</v>
       </c>
@@ -14599,7 +15500,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="75">
+    <row r="119" spans="1:8" ht="72">
       <c r="A119" s="17">
         <v>30009</v>
       </c>
@@ -14625,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="105">
+    <row r="120" spans="1:8" ht="100.8">
       <c r="A120" s="17">
         <v>30193</v>
       </c>
@@ -14651,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="105">
+    <row r="121" spans="1:8" ht="72">
       <c r="A121" s="17">
         <v>30179</v>
       </c>
@@ -14677,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="105">
+    <row r="122" spans="1:8" ht="100.8">
       <c r="A122" s="17">
         <v>30087</v>
       </c>
@@ -14703,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="120">
+    <row r="123" spans="1:8" ht="115.2">
       <c r="A123" s="17">
         <v>30087</v>
       </c>
@@ -14729,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="60">
+    <row r="124" spans="1:8" ht="57.6">
       <c r="A124" s="17">
         <v>30195</v>
       </c>
@@ -14755,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="105">
+    <row r="125" spans="1:8" ht="72">
       <c r="A125" s="17">
         <v>30100</v>
       </c>
@@ -14781,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="105">
+    <row r="126" spans="1:8" ht="72">
       <c r="A126" s="17">
         <v>30144</v>
       </c>
@@ -14807,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="210">
+    <row r="127" spans="1:8" ht="187.2">
       <c r="A127" s="17">
         <v>30087</v>
       </c>
@@ -14833,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="60">
+    <row r="128" spans="1:8" ht="57.6">
       <c r="A128" s="17" t="s">
         <v>796</v>
       </c>
@@ -14859,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="105">
+    <row r="129" spans="1:8" ht="100.8">
       <c r="A129" s="17">
         <v>30087</v>
       </c>
@@ -14885,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="105">
+    <row r="130" spans="1:8" ht="72">
       <c r="A130" s="17" t="s">
         <v>801</v>
       </c>
@@ -14911,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="105">
+    <row r="131" spans="1:8" ht="72">
       <c r="A131" s="17">
         <v>30060</v>
       </c>
@@ -14937,7 +15838,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="105">
+    <row r="132" spans="1:8" ht="72">
       <c r="A132" s="17" t="s">
         <v>805</v>
       </c>
@@ -14963,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="105">
+    <row r="133" spans="1:8" ht="72">
       <c r="A133" s="17" t="s">
         <v>808</v>
       </c>
@@ -14989,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="105">
+    <row r="134" spans="1:8" ht="100.8">
       <c r="A134" s="17">
         <v>30064</v>
       </c>
@@ -15015,7 +15916,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="105">
+    <row r="135" spans="1:8" ht="72">
       <c r="A135" s="17">
         <v>30195</v>
       </c>
@@ -15041,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="135">
+    <row r="136" spans="1:8" ht="129.6">
       <c r="A136" s="17" t="s">
         <v>796</v>
       </c>
@@ -15067,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="105">
+    <row r="137" spans="1:8" ht="72">
       <c r="A137" s="17" t="s">
         <v>816</v>
       </c>
@@ -15093,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="105">
+    <row r="138" spans="1:8" ht="72">
       <c r="A138" s="17" t="s">
         <v>818</v>
       </c>
@@ -15119,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="150">
+    <row r="139" spans="1:8" ht="129.6">
       <c r="A139" s="17">
         <v>30056</v>
       </c>
@@ -15145,7 +16046,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="105">
+    <row r="140" spans="1:8" ht="72">
       <c r="A140" s="17">
         <v>30087</v>
       </c>
@@ -15171,7 +16072,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="120">
+    <row r="141" spans="1:8" ht="100.8">
       <c r="A141" s="17">
         <v>30063</v>
       </c>
@@ -15197,7 +16098,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="105">
+    <row r="142" spans="1:8" ht="72">
       <c r="A142" s="17" t="s">
         <v>825</v>
       </c>
@@ -15223,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="105">
+    <row r="143" spans="1:8" ht="72">
       <c r="A143" s="17" t="s">
         <v>829</v>
       </c>
@@ -15249,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="105">
+    <row r="144" spans="1:8" ht="72">
       <c r="A144" s="17" t="s">
         <v>831</v>
       </c>
@@ -15275,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="105">
+    <row r="145" spans="1:8" ht="72">
       <c r="A145" s="17" t="s">
         <v>833</v>
       </c>
@@ -15301,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="135">
+    <row r="146" spans="1:8" ht="129.6">
       <c r="A146" s="17">
         <v>30087</v>
       </c>
@@ -15327,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="105">
+    <row r="147" spans="1:8" ht="86.4">
       <c r="A147" s="17" t="s">
         <v>839</v>
       </c>
@@ -15353,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="135">
+    <row r="148" spans="1:8" ht="115.2">
       <c r="A148" s="17">
         <v>30058</v>
       </c>
@@ -15379,7 +16280,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="120">
+    <row r="149" spans="1:8" ht="86.4">
       <c r="A149" s="17">
         <v>30124</v>
       </c>
@@ -15405,7 +16306,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="105">
+    <row r="150" spans="1:8" ht="72">
       <c r="A150" s="17" t="s">
         <v>843</v>
       </c>
@@ -15431,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="105">
+    <row r="151" spans="1:8" ht="86.4">
       <c r="B151" s="17" t="s">
         <v>320</v>
       </c>
@@ -15454,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="105">
+    <row r="152" spans="1:8" ht="72">
       <c r="A152" s="17" t="s">
         <v>849</v>
       </c>
@@ -15480,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="105">
+    <row r="153" spans="1:8" ht="72">
       <c r="A153" s="17">
         <v>30047</v>
       </c>
@@ -15506,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="105">
+    <row r="154" spans="1:8" ht="72">
       <c r="A154" s="17">
         <v>30057</v>
       </c>
@@ -15532,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="60">
+    <row r="155" spans="1:8" ht="57.6">
       <c r="A155" s="17">
         <v>30176</v>
       </c>
@@ -15558,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="90">
+    <row r="156" spans="1:8" ht="72">
       <c r="B156" s="17" t="s">
         <v>320</v>
       </c>
@@ -15581,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="150">
+    <row r="157" spans="1:8" ht="129.6">
       <c r="A157" s="17">
         <v>30004</v>
       </c>
@@ -15607,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="105">
+    <row r="158" spans="1:8" ht="86.4">
       <c r="A158" s="17">
         <v>30073</v>
       </c>
@@ -15633,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="60">
+    <row r="159" spans="1:8" ht="57.6">
       <c r="A159" s="17">
         <v>30054</v>
       </c>
@@ -15659,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="225">
+    <row r="160" spans="1:8" ht="187.2">
       <c r="A160" s="17">
         <v>30004</v>
       </c>
@@ -15685,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="105">
+    <row r="161" spans="1:8" ht="86.4">
       <c r="A161" s="17">
         <v>30004</v>
       </c>
@@ -15711,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="60">
+    <row r="162" spans="1:8" ht="57.6">
       <c r="A162" s="17">
         <v>30028</v>
       </c>
@@ -15737,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="105">
+    <row r="163" spans="1:8" ht="72">
       <c r="A163" s="17">
         <v>30004</v>
       </c>
@@ -15763,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="105">
+    <row r="164" spans="1:8" ht="72">
       <c r="A164" s="17">
         <v>30042</v>
       </c>
@@ -15789,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="105">
+    <row r="165" spans="1:8" ht="86.4">
       <c r="A165" s="17">
         <v>30063</v>
       </c>
@@ -15815,7 +16716,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="105">
+    <row r="166" spans="1:8" ht="72">
       <c r="A166" s="17">
         <v>30072</v>
       </c>
@@ -15841,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="105">
+    <row r="167" spans="1:8" ht="86.4">
       <c r="A167" s="17">
         <v>30087</v>
       </c>
@@ -15867,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="105">
+    <row r="168" spans="1:8" ht="72">
       <c r="A168" s="17">
         <v>30180</v>
       </c>
@@ -15893,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="270">
+    <row r="169" spans="1:8" ht="244.8">
       <c r="A169" s="17">
         <v>30191</v>
       </c>
@@ -15919,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="210">
+    <row r="170" spans="1:8" ht="201.6">
       <c r="A170" s="17">
         <v>30087</v>
       </c>
@@ -15945,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="105">
+    <row r="171" spans="1:8" ht="100.8">
       <c r="A171" s="17">
         <v>30075</v>
       </c>
@@ -15971,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="180">
+    <row r="172" spans="1:8" ht="158.4">
       <c r="A172" s="17">
         <v>30114</v>
       </c>
@@ -15997,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="105">
+    <row r="173" spans="1:8" ht="72">
       <c r="A173" s="17">
         <v>30156</v>
       </c>
@@ -16023,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="105">
+    <row r="174" spans="1:8" ht="72">
       <c r="A174" s="17">
         <v>30139</v>
       </c>
@@ -16049,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="120">
+    <row r="175" spans="1:8" ht="115.2">
       <c r="A175" s="17">
         <v>30163</v>
       </c>
@@ -16075,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="105">
+    <row r="176" spans="1:8" ht="72">
       <c r="A176" s="17">
         <v>30022</v>
       </c>
@@ -16101,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="105">
+    <row r="177" spans="1:8" ht="72">
       <c r="A177" s="17">
         <v>30065</v>
       </c>
@@ -16127,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="105">
+    <row r="178" spans="1:8" ht="72">
       <c r="A178" s="17">
         <v>30087</v>
       </c>
@@ -16153,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="75">
+    <row r="179" spans="1:8" ht="72">
       <c r="A179" s="17">
         <v>30087</v>
       </c>
@@ -16179,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="120">
+    <row r="180" spans="1:8" ht="100.8">
       <c r="A180" s="17">
         <v>30087</v>
       </c>
@@ -16205,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="105">
+    <row r="181" spans="1:8" ht="72">
       <c r="A181" s="17">
         <v>30198</v>
       </c>
@@ -16231,7 +17132,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="75">
+    <row r="182" spans="1:8" ht="72">
       <c r="A182" s="17">
         <v>30131</v>
       </c>
@@ -16257,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="90">
+    <row r="183" spans="1:8" ht="86.4">
       <c r="A183" s="17">
         <v>30064</v>
       </c>
@@ -16283,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="105">
+    <row r="184" spans="1:8" ht="86.4">
       <c r="A184" s="17">
         <v>30014</v>
       </c>
@@ -16309,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="105">
+    <row r="185" spans="1:8" ht="72">
       <c r="A185" s="17">
         <v>30121</v>
       </c>
@@ -16335,7 +17236,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="105">
+    <row r="186" spans="1:8" ht="86.4">
       <c r="A186" s="17">
         <v>30033</v>
       </c>
@@ -16361,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="75">
+    <row r="187" spans="1:8" ht="72">
       <c r="A187" s="17">
         <v>30002</v>
       </c>
@@ -16387,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="75">
+    <row r="188" spans="1:8" ht="57.6">
       <c r="A188" s="17">
         <v>30108</v>
       </c>
@@ -16413,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="90">
+    <row r="189" spans="1:8" ht="72">
       <c r="B189" s="17" t="s">
         <v>320</v>
       </c>
@@ -16436,7 +17337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="150">
+    <row r="190" spans="1:8" ht="115.2">
       <c r="A190" s="17">
         <v>30087</v>
       </c>
@@ -16462,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="75">
+    <row r="191" spans="1:8" ht="72">
       <c r="A191" s="17">
         <v>30115</v>
       </c>
@@ -16488,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="105">
+    <row r="192" spans="1:8" ht="72">
       <c r="A192" s="17">
         <v>30132</v>
       </c>
@@ -16514,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="90">
+    <row r="193" spans="1:8" ht="72">
       <c r="A193" s="17">
         <v>30115</v>
       </c>
@@ -16540,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="150">
+    <row r="194" spans="1:8" ht="129.6">
       <c r="A194" s="17">
         <v>30060</v>
       </c>
@@ -16566,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="120">
+    <row r="195" spans="1:8" ht="115.2">
       <c r="A195" s="17">
         <v>30119</v>
       </c>
@@ -16592,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="60">
+    <row r="196" spans="1:8" ht="57.6">
       <c r="A196" s="17">
         <v>30151</v>
       </c>
@@ -16618,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="75">
+    <row r="197" spans="1:8" ht="72">
       <c r="A197" s="17">
         <v>30158</v>
       </c>
@@ -16644,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="60">
+    <row r="198" spans="1:8" ht="57.6">
       <c r="A198" s="17">
         <v>30119</v>
       </c>
@@ -16670,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="210">
+    <row r="199" spans="1:8" ht="172.8">
       <c r="A199" s="17">
         <v>30176</v>
       </c>
@@ -16696,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="60">
+    <row r="200" spans="1:8" ht="57.6">
       <c r="A200" s="17">
         <v>30194</v>
       </c>
@@ -16722,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="75">
+    <row r="201" spans="1:8" ht="57.6">
       <c r="A201" s="17">
         <v>30086</v>
       </c>
@@ -16748,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="90">
+    <row r="202" spans="1:8" ht="86.4">
       <c r="A202" s="17">
         <v>30087</v>
       </c>
@@ -16774,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="60">
+    <row r="203" spans="1:8" ht="43.2">
       <c r="A203" s="17">
         <v>30119</v>
       </c>
@@ -16800,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="75">
+    <row r="204" spans="1:8" ht="57.6">
       <c r="A204" s="17">
         <v>30087</v>
       </c>
@@ -16826,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="75">
+    <row r="205" spans="1:8" ht="57.6">
       <c r="A205" s="17">
         <v>30087</v>
       </c>
@@ -16852,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="105">
+    <row r="206" spans="1:8" ht="72">
       <c r="B206" s="17" t="s">
         <v>320</v>
       </c>
@@ -16875,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="60">
+    <row r="207" spans="1:8" ht="57.6">
       <c r="A207" s="17">
         <v>30039</v>
       </c>
@@ -16901,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="75">
+    <row r="208" spans="1:8" ht="72">
       <c r="A208" s="17">
         <v>30038</v>
       </c>
@@ -16927,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="75">
+    <row r="209" spans="1:8" ht="72">
       <c r="A209" s="17">
         <v>30193</v>
       </c>
@@ -16953,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="90">
+    <row r="210" spans="1:8" ht="72">
       <c r="A210" s="17">
         <v>30191</v>
       </c>
@@ -16979,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="75">
+    <row r="211" spans="1:8" ht="72">
       <c r="A211" s="17">
         <v>30115</v>
       </c>
@@ -17005,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="75">
+    <row r="212" spans="1:8" ht="72">
       <c r="A212" s="17">
         <v>30119</v>
       </c>
@@ -17037,7 +17938,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H118">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H118">
     <sortCondition ref="F1"/>
   </sortState>
   <hyperlinks>
@@ -17285,16 +18186,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="47"/>
-    <col min="3" max="3" width="46.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="47" customWidth="1"/>
-    <col min="8" max="8" width="62.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="47"/>
+    <col min="1" max="2" width="11.44140625" style="47"/>
+    <col min="3" max="3" width="46.6640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="62.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -18572,7 +19473,7 @@
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="49" t="s">
@@ -25670,15 +26571,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CBBA9D-56F9-4311-B53A-5960F2B5C9C0}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25708,497 +26609,497 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="67" customFormat="1">
-      <c r="A2" s="69">
+      <c r="A2" s="81">
         <v>30087</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="81" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="81">
+        <v>557</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="67" customFormat="1">
+      <c r="A3" s="81">
+        <v>30071</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="81">
+        <v>3340</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="67" customFormat="1">
+      <c r="A4" s="81">
+        <v>30087</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="81">
+        <v>6020</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="67" customFormat="1">
+      <c r="A5" s="81">
+        <v>30134</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="81">
+        <v>2306</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="67" customFormat="1">
+      <c r="A6" s="81">
+        <v>30183</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1015</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="67" customFormat="1">
+      <c r="A7" s="81">
+        <v>30191</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="81">
+        <v>9595</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="67" customFormat="1">
+      <c r="A8" s="81">
+        <v>30059</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="81">
+        <v>24317</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="67" customFormat="1">
+      <c r="A9" s="81">
+        <v>30005</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="81">
+        <v>2761</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="67" customFormat="1">
+      <c r="A10" s="81">
+        <v>30065</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="81">
+        <v>3681</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="67" customFormat="1">
+      <c r="A11" s="81">
+        <v>30030</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" s="81">
+        <v>5576</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="67" customFormat="1">
+      <c r="A12" s="81">
+        <v>30199</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C12" s="81" t="s">
         <v>2128</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="69">
-        <v>557</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>2011</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="67" customFormat="1">
-      <c r="A3" s="69">
-        <v>30071</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="D12" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="81">
+        <v>8005</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="67" customFormat="1">
+      <c r="A13" s="81">
+        <v>30004</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C13" s="81" t="s">
         <v>2129</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="69">
-        <v>3340</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>2015</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>2016</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="67" customFormat="1">
-      <c r="A4" s="69">
-        <v>30087</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="69" t="s">
+      <c r="D13" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="81">
+        <v>3324</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="67" customFormat="1">
+      <c r="A14" s="81">
+        <v>30160</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>2130</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="69">
-        <v>6020</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>2019</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="67" customFormat="1">
-      <c r="A5" s="69">
-        <v>30134</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C5" s="69" t="s">
+      <c r="D14" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1277</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="67" customFormat="1">
+      <c r="A15" s="81">
+        <v>30059</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C15" s="81" t="s">
         <v>2131</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="69">
-        <v>2306</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>2023</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="67" customFormat="1">
-      <c r="A6" s="69">
-        <v>30183</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="69" t="s">
+      <c r="D15" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="81">
+        <v>13974</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="67" customFormat="1">
+      <c r="A16" s="81">
+        <v>30039</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C16" s="81" t="s">
         <v>2132</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="69">
-        <v>1015</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>2025</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>2026</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="67" customFormat="1">
-      <c r="A7" s="69">
-        <v>30191</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="69" t="s">
+      <c r="D16" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="81">
+        <v>235891</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="67" customFormat="1">
+      <c r="A17" s="81">
+        <v>30040</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>2133</v>
       </c>
-      <c r="D7" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="69">
-        <v>9595</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>2029</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="67" customFormat="1">
-      <c r="A8" s="69">
-        <v>30059</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>2031</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="D17" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="81">
+        <v>34039</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="67" customFormat="1">
+      <c r="A18" s="81">
+        <v>30204</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C18" s="81" t="s">
         <v>2134</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="69">
-        <v>24317</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>2032</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>2033</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="67" customFormat="1">
-      <c r="A9" s="69">
-        <v>30005</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="D18" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="81">
+        <v>13595</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="67" customFormat="1">
+      <c r="A19" s="81">
+        <v>30089</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C19" s="81" t="s">
         <v>2135</v>
       </c>
-      <c r="D9" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E9" s="69">
-        <v>2761</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>2035</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>2036</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="67" customFormat="1">
-      <c r="A10" s="69">
-        <v>30065</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="69" t="s">
+      <c r="D19" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="81">
+        <v>4092</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="67" customFormat="1">
+      <c r="A20" s="81">
+        <v>30189</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>2136</v>
       </c>
-      <c r="D10" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" s="69">
-        <v>3681</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>2038</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>2039</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="67" customFormat="1">
-      <c r="A11" s="69">
-        <v>30030</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="69">
-        <v>5576</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>2041</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>2042</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="67" customFormat="1">
-      <c r="A12" s="69">
-        <v>30199</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" s="69">
-        <v>8005</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>2045</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>2046</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="67" customFormat="1">
-      <c r="A13" s="69">
-        <v>30004</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="69">
-        <v>3324</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>2049</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="67" customFormat="1">
-      <c r="A14" s="69">
-        <v>30160</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="69">
-        <v>1277</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>2053</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="67" customFormat="1">
-      <c r="A15" s="69">
-        <v>30059</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>639</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E15" s="69">
-        <v>13974</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>2055</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>2056</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="67" customFormat="1">
-      <c r="A16" s="69">
-        <v>30039</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E16" s="69">
-        <v>235891</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>2058</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>2059</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="67" customFormat="1">
-      <c r="A17" s="69">
-        <v>30040</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="69">
-        <v>34039</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>2062</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="67" customFormat="1">
-      <c r="A18" s="69">
-        <v>30204</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>708</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E18" s="69">
-        <v>13595</v>
-      </c>
-      <c r="F18" s="69" t="s">
+      <c r="D20" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="81">
+        <v>2150</v>
+      </c>
+      <c r="F20" s="81" t="s">
         <v>2065</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G20" s="82" t="s">
         <v>2066</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H20" s="81" t="s">
         <v>2067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="67" customFormat="1">
-      <c r="A19" s="69">
-        <v>30089</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E19" s="69">
-        <v>4092</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>2070</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="67" customFormat="1">
-      <c r="A20" s="69">
-        <v>30189</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>667</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>2146</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="69">
-        <v>2150</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>2072</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>2073</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="67" customFormat="1">
@@ -26206,25 +27107,25 @@
         <v>30189</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>667</v>
+        <v>1295</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>2147</v>
-      </c>
-      <c r="D21" s="68" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D21" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E21" s="69">
         <v>2585</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="67" customFormat="1">
@@ -26232,12 +27133,12 @@
         <v>30112</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D22" s="68" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D22" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E22" s="69">
@@ -26250,7 +27151,7 @@
         <v>2000</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>2240</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="67" customFormat="1">
@@ -26258,12 +27159,12 @@
         <v>30047</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D23" s="68" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D23" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E23" s="69">
@@ -26276,7 +27177,7 @@
         <v>2001</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="67" customFormat="1">
@@ -26284,12 +27185,12 @@
         <v>30192</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>2080</v>
+        <v>2550</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D24" s="68" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D24" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E24" s="69">
@@ -26302,7 +27203,7 @@
         <v>2002</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>2242</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -26310,12 +27211,12 @@
         <v>30004</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D25" s="68" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D25" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E25" s="69">
@@ -26328,7 +27229,7 @@
         <v>2003</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>2243</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -26339,9 +27240,9 @@
         <v>1242</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D26" s="68" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D26" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E26" s="69">
@@ -26354,7 +27255,7 @@
         <v>2010</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>2244</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -26365,9 +27266,9 @@
         <v>1438</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D27" s="68" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D27" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E27" s="69">
@@ -26380,7 +27281,7 @@
         <v>2004</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>2245</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -26388,25 +27289,25 @@
         <v>30009</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>2082</v>
+        <v>2551</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>2154</v>
-      </c>
-      <c r="D28" s="68" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D28" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E28" s="69">
         <v>7354</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="G28" s="69" t="s">
         <v>2005</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -26417,22 +27318,22 @@
         <v>1438</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D29" s="68" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D29" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E29" s="69">
         <v>117754</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
       <c r="G29" s="69" t="s">
         <v>2006</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -26443,9 +27344,9 @@
         <v>1791</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D30" s="68" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D30" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E30" s="69">
@@ -26466,25 +27367,25 @@
         <v>30163</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D31" s="68" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D31" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E31" s="69">
         <v>2186</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>2007</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>2248</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -26492,12 +27393,12 @@
         <v>30066</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D32" s="68" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D32" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E32" s="69">
@@ -26510,7 +27411,7 @@
         <v>2008</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>2249</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -26518,25 +27419,25 @@
         <v>30166</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D33" s="68" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D33" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E33" s="69">
         <v>2998</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>2009</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>2250</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -26547,9 +27448,9 @@
         <v>1772</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>2160</v>
-      </c>
-      <c r="D34" s="68" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D34" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E34" s="69">
@@ -26559,10 +27460,10 @@
         <v>1872</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -26573,22 +27474,22 @@
         <v>1810</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D35" s="68" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D35" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E35" s="69">
         <v>17928</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>2252</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -26599,22 +27500,22 @@
         <v>1784</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D36" s="68" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D36" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E36" s="69">
         <v>8395</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="G36" s="69" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>2253</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -26625,22 +27526,22 @@
         <v>1798</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D37" s="68" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D37" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E37" s="69">
         <v>5929</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>2092</v>
+        <v>2083</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>2254</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -26651,9 +27552,9 @@
         <v>1763</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D38" s="68" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D38" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E38" s="69">
@@ -26663,10 +27564,10 @@
         <v>1997</v>
       </c>
       <c r="G38" s="69" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -26674,25 +27575,25 @@
         <v>30208</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D39" s="68" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D39" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E39" s="69">
         <v>14974</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="G39" s="69" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -26703,22 +27604,22 @@
         <v>1314</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D40" s="68" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D40" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E40" s="69">
         <v>8918</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>2257</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -26729,9 +27630,9 @@
         <v>1798</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D41" s="68" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D41" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E41" s="69">
@@ -26741,10 +27642,10 @@
         <v>1.54</v>
       </c>
       <c r="G41" s="69" t="s">
-        <v>2207</v>
+        <v>2197</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -26755,22 +27656,22 @@
         <v>1305</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>2168</v>
-      </c>
-      <c r="D42" s="68" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D42" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E42" s="69">
         <v>10448</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="G42" s="69" t="s">
-        <v>2208</v>
+        <v>2198</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>2259</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -26778,25 +27679,25 @@
         <v>30073</v>
       </c>
       <c r="B43" s="69" t="s">
-        <v>1826</v>
+        <v>2552</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D43" s="68" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D43" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E43" s="69">
         <v>2435</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="G43" s="69" t="s">
-        <v>2209</v>
+        <v>2199</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>2260</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -26804,25 +27705,25 @@
         <v>30145</v>
       </c>
       <c r="B44" s="69" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D44" s="68" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D44" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E44" s="69">
         <v>7445</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="G44" s="69" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="H44" s="69" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -26833,22 +27734,22 @@
         <v>1766</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D45" s="68" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D45" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E45" s="69">
         <v>6284</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="G45" s="69" t="s">
-        <v>2211</v>
+        <v>2201</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -26856,25 +27757,25 @@
         <v>30150</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D46" s="68" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D46" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E46" s="69">
         <v>6052</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>2101</v>
+        <v>2092</v>
       </c>
       <c r="G46" s="69" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -26885,22 +27786,22 @@
         <v>1314</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D47" s="68" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D47" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E47" s="69">
         <v>8567</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="G47" s="69" t="s">
-        <v>2213</v>
+        <v>2203</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>2264</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -26911,22 +27812,22 @@
         <v>1449</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D48" s="68" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D48" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E48" s="69">
         <v>48255</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="G48" s="69" t="s">
-        <v>2214</v>
+        <v>2204</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>2265</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -26937,9 +27838,9 @@
         <v>1314</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>2175</v>
-      </c>
-      <c r="D49" s="68" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D49" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E49" s="69">
@@ -26949,10 +27850,10 @@
         <v>1872</v>
       </c>
       <c r="G49" s="69" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -26963,22 +27864,22 @@
         <v>1817</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D50" s="68" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D50" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E50" s="69">
         <v>1499</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="G50" s="69" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -26989,22 +27890,22 @@
         <v>1789</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>2177</v>
-      </c>
-      <c r="D51" s="68" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D51" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E51" s="69">
         <v>3502</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="G51" s="69" t="s">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -27015,22 +27916,22 @@
         <v>1770</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D52" s="68" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D52" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E52" s="69">
         <v>3546</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="G52" s="69" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -27041,22 +27942,22 @@
         <v>1295</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D53" s="68" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D53" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E53" s="69">
         <v>90193</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="G53" s="69" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -27067,9 +27968,9 @@
         <v>1308</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>2180</v>
-      </c>
-      <c r="D54" s="68" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D54" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E54" s="69">
@@ -27079,10 +27980,10 @@
         <v>199</v>
       </c>
       <c r="G54" s="69" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -27093,22 +27994,22 @@
         <v>1832</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D55" s="68" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D55" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E55" s="69">
         <v>13995</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="G55" s="69" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -27116,12 +28017,12 @@
         <v>30077</v>
       </c>
       <c r="B56" s="69" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D56" s="68" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D56" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E56" s="69">
@@ -27131,10 +28032,10 @@
         <v>1855</v>
       </c>
       <c r="G56" s="69" t="s">
-        <v>2222</v>
+        <v>2212</v>
       </c>
       <c r="H56" s="69" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -27142,25 +28043,25 @@
         <v>30191</v>
       </c>
       <c r="B57" s="69" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D57" s="68" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D57" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E57" s="69">
         <v>15310</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="G57" s="69" t="s">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="H57" s="69" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -27171,22 +28072,22 @@
         <v>1845</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D58" s="68" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E58" s="69">
         <v>465823</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="G58" s="69" t="s">
-        <v>2224</v>
+        <v>2214</v>
       </c>
       <c r="H58" s="69" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -27194,25 +28095,25 @@
         <v>30043</v>
       </c>
       <c r="B59" s="69" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>2185</v>
-      </c>
-      <c r="D59" s="68" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D59" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E59" s="69">
         <v>1393</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="G59" s="69" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="H59" s="69" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -27220,25 +28121,25 @@
         <v>30209</v>
       </c>
       <c r="B60" s="69" t="s">
-        <v>1474</v>
+        <v>2553</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D60" s="68" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D60" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E60" s="69">
         <v>9127</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="G60" s="69" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
       <c r="H60" s="69" t="s">
-        <v>2277</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -27246,25 +28147,25 @@
         <v>30032</v>
       </c>
       <c r="B61" s="69" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D61" s="68" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D61" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E61" s="69">
         <v>1083</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="G61" s="69" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>2278</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -27272,25 +28173,25 @@
         <v>30132</v>
       </c>
       <c r="B62" s="69" t="s">
-        <v>2117</v>
+        <v>2554</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>2188</v>
-      </c>
-      <c r="D62" s="68" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D62" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E62" s="69">
         <v>1349</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="G62" s="69" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="H62" s="69" t="s">
-        <v>2279</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -27301,22 +28202,22 @@
         <v>1798</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D63" s="68" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D63" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E63" s="69">
         <v>7608</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="G63" s="69" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -27327,9 +28228,9 @@
         <v>1314</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D64" s="68" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D64" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E64" s="69">
@@ -27339,10 +28240,10 @@
         <v>1872</v>
       </c>
       <c r="G64" s="69" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="H64" s="69" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -27353,22 +28254,22 @@
         <v>1300</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D65" s="68" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D65" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E65" s="69">
         <v>3417</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="G65" s="69" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="H65" s="69" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -27376,25 +28277,25 @@
         <v>30209</v>
       </c>
       <c r="B66" s="69" t="s">
-        <v>1474</v>
+        <v>2553</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>2192</v>
-      </c>
-      <c r="D66" s="68" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D66" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E66" s="69">
         <v>2241</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="G66" s="69" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -27402,25 +28303,25 @@
         <v>30073</v>
       </c>
       <c r="B67" s="69" t="s">
-        <v>1826</v>
+        <v>2552</v>
       </c>
       <c r="C67" s="69" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D67" s="68" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D67" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E67" s="69">
         <v>12345</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="G67" s="69" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -27431,22 +28332,22 @@
         <v>1295</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>2194</v>
-      </c>
-      <c r="D68" s="68" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D68" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E68" s="69">
         <v>90441</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="G68" s="69" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -27457,22 +28358,22 @@
         <v>1761</v>
       </c>
       <c r="C69" s="69" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D69" s="68" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D69" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E69" s="69">
         <v>1234</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="G69" s="69" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -27483,22 +28384,22 @@
         <v>1470</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>2196</v>
-      </c>
-      <c r="D70" s="68" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D70" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E70" s="69">
         <v>6015</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="G70" s="69" t="s">
-        <v>2236</v>
+        <v>2226</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -27506,22 +28407,22 @@
         <v>30010</v>
       </c>
       <c r="B71" s="69" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D71" s="68" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D71" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E71" s="69">
         <v>345</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="G71" s="69" t="s">
-        <v>2237</v>
+        <v>2227</v>
       </c>
       <c r="H71" s="69">
         <v>0</v>
@@ -27535,19 +28436,19 @@
         <v>1297</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D72" s="68" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D72" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E72" s="69">
         <v>42451</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>2238</v>
+        <v>2228</v>
       </c>
       <c r="H72" s="69">
         <v>0</v>
@@ -27561,22 +28462,2752 @@
         <v>1817</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>2199</v>
-      </c>
-      <c r="D73" s="68" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D73" s="80" t="s">
         <v>371</v>
       </c>
       <c r="E73" s="69">
         <v>1777</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="G73" s="69" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="72">
+        <v>30087</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="74">
+        <v>557</v>
+      </c>
+      <c r="F74" s="73" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H74" s="75" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="72">
+        <v>30071</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E75" s="74">
+        <v>3340</v>
+      </c>
+      <c r="F75" s="73" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H75" s="75" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="72">
+        <v>30087</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E76" s="74">
+        <v>6020</v>
+      </c>
+      <c r="F76" s="73" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>2285</v>
+      </c>
+      <c r="H76" s="75" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="72">
+        <v>30134</v>
+      </c>
+      <c r="B77" s="72" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C77" s="73" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" s="74">
+        <v>2306</v>
+      </c>
+      <c r="F77" s="73" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H77" s="75" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="72">
+        <v>30183</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E78" s="74">
+        <v>1015</v>
+      </c>
+      <c r="F78" s="73" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H78" s="75" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="72">
+        <v>30191</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C79" s="73" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E79" s="74">
+        <v>9595</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H79" s="75" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="72">
+        <v>30059</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E80" s="76">
+        <v>24317</v>
+      </c>
+      <c r="F80" s="73" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G80" s="75" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H80" s="75" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="72">
+        <v>30005</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C81" s="73" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E81" s="74">
+        <v>2761</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H81" s="75" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="72">
+        <v>30065</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C82" s="73" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E82" s="74">
+        <v>3681</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>2299</v>
+      </c>
+      <c r="H82" s="75" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="72">
+        <v>30030</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C83" s="73" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E83" s="76">
+        <v>5576</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H83" s="75" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="72">
+        <v>30199</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E84" s="74">
+        <v>8005</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G84" s="75" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H84" s="75" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="72">
+        <v>30004</v>
+      </c>
+      <c r="B85" s="72" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E85" s="74">
+        <v>3324</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H85" s="75" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="72">
+        <v>30160</v>
+      </c>
+      <c r="B86" s="72" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E86" s="74">
+        <v>1277</v>
+      </c>
+      <c r="F86" s="73" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G86" s="75" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H86" s="75" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="72">
+        <v>30059</v>
+      </c>
+      <c r="B87" s="72" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C87" s="73" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E87" s="74">
+        <v>13974</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G87" s="75" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H87" s="75" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="72">
+        <v>30039</v>
+      </c>
+      <c r="B88" s="72" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C88" s="73" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E88" s="74">
+        <v>235891</v>
+      </c>
+      <c r="F88" s="73" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G88" s="75" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H88" s="75" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="72">
+        <v>30040</v>
+      </c>
+      <c r="B89" s="72" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C89" s="73" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E89" s="74">
+        <v>34039</v>
+      </c>
+      <c r="F89" s="73" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G89" s="75" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H89" s="75" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="72">
+        <v>30004</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C90" s="73" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" s="77">
+        <v>590</v>
+      </c>
+      <c r="F90" s="73" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G90" s="75" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H90" s="75" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="72">
+        <v>30204</v>
+      </c>
+      <c r="B91" s="72" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E91" s="78">
+        <v>13595</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G91" s="75" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H91" s="75" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="72">
+        <v>30089</v>
+      </c>
+      <c r="B92" s="72" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E92" s="78">
+        <v>4092</v>
+      </c>
+      <c r="F92" s="73" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G92" s="75" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H92" s="75" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="72">
+        <v>30189</v>
+      </c>
+      <c r="B93" s="72" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C93" s="73" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E93" s="78">
+        <v>2150</v>
+      </c>
+      <c r="F93" s="73" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G93" s="75" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H93" s="75" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="72">
+        <v>30189</v>
+      </c>
+      <c r="B94" s="72" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C94" s="73" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E94" s="74">
+        <v>2585</v>
+      </c>
+      <c r="F94" s="73" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G94" s="75" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H94" s="75" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="72">
+        <v>30188</v>
+      </c>
+      <c r="B95" s="72" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C95" s="73" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D95" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E95" s="74">
+        <v>4051</v>
+      </c>
+      <c r="F95" s="73" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G95" s="75" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H95" s="75" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="72">
+        <v>30039</v>
+      </c>
+      <c r="B96" s="72" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C96" s="73" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D96" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E96" s="74">
+        <v>500</v>
+      </c>
+      <c r="F96" s="73" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G96" s="75" t="s">
+        <v>2333</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="72">
+        <v>30039</v>
+      </c>
+      <c r="B97" s="72" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D97" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E97" s="74">
+        <v>1947</v>
+      </c>
+      <c r="F97" s="73" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G97" s="75" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H97" s="75" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="72">
+        <v>30026</v>
+      </c>
+      <c r="B98" s="72" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C98" s="73" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" s="74">
+        <v>5690</v>
+      </c>
+      <c r="F98" s="73" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G98" s="75" t="s">
+        <v>2341</v>
+      </c>
+      <c r="H98" s="75" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="72">
+        <v>30136</v>
+      </c>
+      <c r="B99" s="72" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D99" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E99" s="74">
+        <v>4837</v>
+      </c>
+      <c r="F99" s="73" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G99" s="75" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H99" s="75" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="72">
+        <v>30028</v>
+      </c>
+      <c r="B100" s="72" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C100" s="73" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D100" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E100" s="74">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="73" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G100" s="79" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H100" s="75" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="72">
+        <v>30065</v>
+      </c>
+      <c r="B101" s="72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C101" s="73" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E101" s="74">
+        <v>1076</v>
+      </c>
+      <c r="F101" s="73" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G101" s="75" t="s">
+        <v>2353</v>
+      </c>
+      <c r="H101" s="75" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="72">
+        <v>30087</v>
+      </c>
+      <c r="B102" s="72" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C102" s="73" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E102" s="74">
+        <v>443063</v>
+      </c>
+      <c r="F102" s="73" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G102" s="75" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H102" s="75" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="72">
+        <v>30087</v>
+      </c>
+      <c r="B103" s="72" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C103" s="73" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D103" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E103" s="74">
+        <v>6320</v>
+      </c>
+      <c r="F103" s="73" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G103" s="75" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H103" s="75" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="72">
+        <v>30040</v>
+      </c>
+      <c r="B104" s="72" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C104" s="73" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E104" s="74">
+        <v>34039</v>
+      </c>
+      <c r="F104" s="73" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G104" s="75" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H104" s="75" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="72">
+        <v>30105</v>
+      </c>
+      <c r="B105" s="72" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C105" s="73" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D105" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E105" s="74">
+        <v>1920</v>
+      </c>
+      <c r="F105" s="73" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H105" s="75" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="72">
+        <v>30117</v>
+      </c>
+      <c r="B106" s="72" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C106" s="73" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E106" s="74">
+        <v>3608</v>
+      </c>
+      <c r="F106" s="73" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G106" s="75" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H106" s="75" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="72">
+        <v>30039</v>
+      </c>
+      <c r="B107" s="72" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C107" s="73" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107" s="78">
+        <v>5532</v>
+      </c>
+      <c r="F107" s="73" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G107" s="75" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H107" s="75" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="72">
+        <v>30192</v>
+      </c>
+      <c r="B108" s="72" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C108" s="73" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D108" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" s="74">
+        <v>13504</v>
+      </c>
+      <c r="F108" s="73" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G108" s="75" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H108" s="75" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="71">
+        <v>30112</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D109" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" s="83">
+        <v>11604</v>
+      </c>
+      <c r="F109" s="71" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G109" s="84" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H109" s="85" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="71">
+        <v>30047</v>
+      </c>
+      <c r="B110" s="71" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D110" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E110" s="83">
+        <v>18640</v>
+      </c>
+      <c r="F110" s="86" t="s">
+        <v>753</v>
+      </c>
+      <c r="G110" s="84" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H110" s="85" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="71">
+        <v>30192</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D111" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" s="83">
+        <v>7688</v>
+      </c>
+      <c r="F111" s="86" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G111" s="84" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H111" s="85" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="71">
+        <v>30004</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D112" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="83">
+        <v>4683</v>
+      </c>
+      <c r="F112" s="71" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G112" s="84" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H112" s="85" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="71">
+        <v>30036</v>
+      </c>
+      <c r="B113" s="71" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D113" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E113" s="83">
+        <v>8242</v>
+      </c>
+      <c r="F113" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="G113" s="84" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H113" s="85" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="71">
+        <v>30109</v>
+      </c>
+      <c r="B114" s="71" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D114" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E114" s="83">
+        <v>31520</v>
+      </c>
+      <c r="F114" s="71" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G114" s="84" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H114" s="85" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="71">
+        <v>30009</v>
+      </c>
+      <c r="B115" s="71" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D115" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="83">
+        <v>7354</v>
+      </c>
+      <c r="F115" s="71" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G115" s="84" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H115" s="85" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="71">
+        <v>30109</v>
+      </c>
+      <c r="B116" s="71" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D116" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E116" s="83">
+        <v>117754</v>
+      </c>
+      <c r="F116" s="71" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G116" s="84" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H116" s="85" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="71">
+        <v>30163</v>
+      </c>
+      <c r="B117" s="71" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D117" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E117" s="83">
+        <v>2186</v>
+      </c>
+      <c r="F117" s="71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G117" s="84" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H117" s="85" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="71">
+        <v>30066</v>
+      </c>
+      <c r="B118" s="71" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D118" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E118" s="83">
+        <v>7710</v>
+      </c>
+      <c r="F118" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G118" s="84" t="s">
         <v>2239</v>
       </c>
-      <c r="H73" s="69" t="s">
-        <v>2288</v>
+      <c r="H118" s="85" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="71">
+        <v>30166</v>
+      </c>
+      <c r="B119" s="71" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D119" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E119" s="83">
+        <v>2998</v>
+      </c>
+      <c r="F119" s="71" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G119" s="84" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H119" s="85" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="71">
+        <v>30123</v>
+      </c>
+      <c r="B120" s="87" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C120" s="88" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D120" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="83">
+        <v>41588</v>
+      </c>
+      <c r="F120" s="71" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G120" s="84" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H120" s="85" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="71">
+        <v>30015</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C121" s="88" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D121" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E121" s="83">
+        <v>17928</v>
+      </c>
+      <c r="F121" s="71" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G121" s="84" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H121" s="85" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="71">
+        <v>30006</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C122" s="88" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D122" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E122" s="83">
+        <v>8395</v>
+      </c>
+      <c r="F122" s="71" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G122" s="84" t="s">
+        <v>2243</v>
+      </c>
+      <c r="H122" s="85" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="71">
+        <v>30058</v>
+      </c>
+      <c r="B123" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C123" s="88" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D123" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="83">
+        <v>5929</v>
+      </c>
+      <c r="F123" s="71" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G123" s="85" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H123" s="85" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="71">
+        <v>30155</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C124" s="88" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D124" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="83">
+        <v>33808</v>
+      </c>
+      <c r="F124" s="71" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G124" s="85" t="s">
+        <v>2245</v>
+      </c>
+      <c r="H124" s="85" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="71">
+        <v>30208</v>
+      </c>
+      <c r="B125" s="87" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C125" s="88" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D125" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="83">
+        <v>14974</v>
+      </c>
+      <c r="F125" s="71" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G125" s="84" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H125" s="85" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="71">
+        <v>30201</v>
+      </c>
+      <c r="B126" s="87" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C126" s="88" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D126" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="83">
+        <v>8918</v>
+      </c>
+      <c r="F126" s="71" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G126" s="84" t="s">
+        <v>2247</v>
+      </c>
+      <c r="H126" s="85" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="71">
+        <v>30058</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C127" s="88" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D127" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="83">
+        <v>2075</v>
+      </c>
+      <c r="F127" s="71">
+        <v>1.54</v>
+      </c>
+      <c r="G127" s="84" t="s">
+        <v>2248</v>
+      </c>
+      <c r="H127" s="85" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="71">
+        <v>30122</v>
+      </c>
+      <c r="B128" s="87" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C128" s="88" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D128" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E128" s="83">
+        <v>10448</v>
+      </c>
+      <c r="F128" s="71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G128" s="84" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H128" s="85" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="71">
+        <v>30073</v>
+      </c>
+      <c r="B129" s="87" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D129" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="83">
+        <v>2435</v>
+      </c>
+      <c r="F129" s="71" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G129" s="84" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H129" s="85" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="71">
+        <v>30145</v>
+      </c>
+      <c r="B130" s="87" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C130" s="88" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D130" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="83">
+        <v>7445</v>
+      </c>
+      <c r="F130" s="71" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G130" s="84" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H130" s="85" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="71">
+        <v>30011</v>
+      </c>
+      <c r="B131" s="87" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C131" s="88" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D131" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="83">
+        <v>6284</v>
+      </c>
+      <c r="F131" s="71" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G131" s="84" t="s">
+        <v>2252</v>
+      </c>
+      <c r="H131" s="85" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="71">
+        <v>30150</v>
+      </c>
+      <c r="B132" s="87" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C132" s="88" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D132" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" s="83">
+        <v>6052</v>
+      </c>
+      <c r="F132" s="71" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G132" s="84" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H132" s="85" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="71">
+        <v>30201</v>
+      </c>
+      <c r="B133" s="87" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C133" s="88" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D133" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" s="83">
+        <v>8567</v>
+      </c>
+      <c r="F133" s="71" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G133" s="84" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H133" s="85" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="71">
+        <v>30174</v>
+      </c>
+      <c r="B134" s="87" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C134" s="88" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D134" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" s="83">
+        <v>48255</v>
+      </c>
+      <c r="F134" s="71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G134" s="85" t="s">
+        <v>2255</v>
+      </c>
+      <c r="H134" s="85" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="71">
+        <v>30201</v>
+      </c>
+      <c r="B135" s="87" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C135" s="88" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D135" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E135" s="83">
+        <v>8241</v>
+      </c>
+      <c r="F135" s="71" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G135" s="84" t="s">
+        <v>2256</v>
+      </c>
+      <c r="H135" s="85" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="71">
+        <v>30020</v>
+      </c>
+      <c r="B136" s="87" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C136" s="88" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D136" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E136" s="83">
+        <v>1499</v>
+      </c>
+      <c r="F136" s="71" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G136" s="84" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H136" s="85" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="71">
+        <v>30004</v>
+      </c>
+      <c r="B137" s="87" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C137" s="88" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D137" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E137" s="83">
+        <v>3502</v>
+      </c>
+      <c r="F137" s="71" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G137" s="84" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H137" s="85" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="71">
+        <v>30197</v>
+      </c>
+      <c r="B138" s="87" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C138" s="88" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D138" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E138" s="83">
+        <v>3546</v>
+      </c>
+      <c r="F138" s="71" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G138" s="84" t="s">
+        <v>2259</v>
+      </c>
+      <c r="H138" s="85" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="71">
+        <v>30189</v>
+      </c>
+      <c r="B139" s="87" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C139" s="88" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D139" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E139" s="83">
+        <v>90193</v>
+      </c>
+      <c r="F139" s="71" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G139" s="84" t="s">
+        <v>2260</v>
+      </c>
+      <c r="H139" s="85" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="71">
+        <v>30124</v>
+      </c>
+      <c r="B140" s="87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C140" s="88" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D140" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E140" s="83">
+        <v>36345</v>
+      </c>
+      <c r="F140" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G140" s="84" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H140" s="85" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="71">
+        <v>30116</v>
+      </c>
+      <c r="B141" s="87" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C141" s="88" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D141" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E141" s="83">
+        <v>13995</v>
+      </c>
+      <c r="F141" s="71" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G141" s="84" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H141" s="85" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="71">
+        <v>30077</v>
+      </c>
+      <c r="B142" s="87" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C142" s="88" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D142" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E142" s="83">
+        <v>25771</v>
+      </c>
+      <c r="F142" s="71" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G142" s="84" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H142" s="85" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="71">
+        <v>30191</v>
+      </c>
+      <c r="B143" s="87" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C143" s="88" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D143" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E143" s="83">
+        <v>15310</v>
+      </c>
+      <c r="F143" s="71" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G143" s="84" t="s">
+        <v>2264</v>
+      </c>
+      <c r="H143" s="85" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="71">
+        <v>30026</v>
+      </c>
+      <c r="B144" s="87" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C144" s="88" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D144" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E144" s="83">
+        <v>465823</v>
+      </c>
+      <c r="F144" s="71" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G144" s="84" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H144" s="85" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="71">
+        <v>30043</v>
+      </c>
+      <c r="B145" s="87" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C145" s="88" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D145" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E145" s="83">
+        <v>1393</v>
+      </c>
+      <c r="F145" s="71" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G145" s="84" t="s">
+        <v>2266</v>
+      </c>
+      <c r="H145" s="85" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="71">
+        <v>30209</v>
+      </c>
+      <c r="B146" s="87" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C146" s="88" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D146" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="83">
+        <v>9127</v>
+      </c>
+      <c r="F146" s="71" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G146" s="84" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H146" s="85" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="71">
+        <v>30032</v>
+      </c>
+      <c r="B147" s="87" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C147" s="88" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D147" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E147" s="83">
+        <v>1083</v>
+      </c>
+      <c r="F147" s="71" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G147" s="84" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H147" s="85" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="71">
+        <v>30132</v>
+      </c>
+      <c r="B148" s="87" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C148" s="88" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D148" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E148" s="83">
+        <v>1349</v>
+      </c>
+      <c r="F148" s="71" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G148" s="84" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H148" s="85" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="71">
+        <v>30058</v>
+      </c>
+      <c r="B149" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C149" s="88" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D149" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E149" s="83">
+        <v>7608</v>
+      </c>
+      <c r="F149" s="71" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G149" s="84" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H149" s="85" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="71">
+        <v>30201</v>
+      </c>
+      <c r="B150" s="87" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C150" s="88" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D150" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E150" s="83">
+        <v>7669</v>
+      </c>
+      <c r="F150" s="71" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G150" s="84" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H150" s="85" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="71">
+        <v>30147</v>
+      </c>
+      <c r="B151" s="87" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C151" s="88" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D151" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E151" s="83">
+        <v>3417</v>
+      </c>
+      <c r="F151" s="71" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G151" s="84">
+        <v>0</v>
+      </c>
+      <c r="H151" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="71">
+        <v>30209</v>
+      </c>
+      <c r="B152" s="87" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C152" s="88" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D152" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E152" s="83">
+        <v>2241</v>
+      </c>
+      <c r="F152" s="71" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G152" s="84" t="s">
+        <v>2273</v>
+      </c>
+      <c r="H152" s="85" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="71">
+        <v>30073</v>
+      </c>
+      <c r="B153" s="87" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C153" s="88" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D153" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E153" s="83">
+        <v>12345</v>
+      </c>
+      <c r="F153" s="71" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G153" s="84" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H153" s="85" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="71">
+        <v>30189</v>
+      </c>
+      <c r="B154" s="87" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C154" s="88" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D154" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="83">
+        <v>90441</v>
+      </c>
+      <c r="F154" s="71" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G154" s="84" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H154" s="85" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="71">
+        <v>3023</v>
+      </c>
+      <c r="B155" s="87" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C155" s="88" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D155" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E155" s="83">
+        <v>1234</v>
+      </c>
+      <c r="F155" s="71" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G155" s="84" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H155" s="85" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="71">
+        <v>30042</v>
+      </c>
+      <c r="B156" s="87" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C156" s="88" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D156" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E156" s="83">
+        <v>6015</v>
+      </c>
+      <c r="F156" s="71" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G156" s="84" t="s">
+        <v>2277</v>
+      </c>
+      <c r="H156" s="85" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="71">
+        <v>30010</v>
+      </c>
+      <c r="B157" s="87" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C157" s="88" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D157" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E157" s="83">
+        <v>345</v>
+      </c>
+      <c r="F157" s="71" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G157" s="85" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H157" s="85" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="71">
+        <v>30128</v>
+      </c>
+      <c r="B158" s="87" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C158" s="88" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D158" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E158" s="83">
+        <v>42451</v>
+      </c>
+      <c r="F158" s="71" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G158" s="85" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H158" s="85" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="71">
+        <v>30020</v>
+      </c>
+      <c r="B159" s="87" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C159" s="88" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D159" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E159" s="83">
+        <v>1777</v>
+      </c>
+      <c r="F159" s="71" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G159" s="84" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H159" s="85" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="71">
+        <v>30051</v>
+      </c>
+      <c r="B160" s="87" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C160" s="88" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D160" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E160" s="83">
+        <v>7008</v>
+      </c>
+      <c r="F160" s="71" t="s">
+        <v>2436</v>
+      </c>
+      <c r="G160" s="85" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="71">
+        <v>30101</v>
+      </c>
+      <c r="B161" s="87" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C161" s="88" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D161" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E161" s="83">
+        <v>65277</v>
+      </c>
+      <c r="F161" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G161" s="85" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="71">
+        <v>30010</v>
+      </c>
+      <c r="B162" s="87" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C162" s="88" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D162" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E162" s="83">
+        <v>1418</v>
+      </c>
+      <c r="F162" s="89" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G162" s="85" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="71">
+        <v>30141</v>
+      </c>
+      <c r="B163" s="87" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C163" s="88" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D163" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E163" s="83">
+        <v>64982</v>
+      </c>
+      <c r="F163" s="71" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G163" s="85" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="71">
+        <v>30141</v>
+      </c>
+      <c r="B164" s="87" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C164" s="88" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D164" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="83">
+        <v>66626</v>
+      </c>
+      <c r="F164" s="71" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G164" s="85" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="71">
+        <v>30147</v>
+      </c>
+      <c r="B165" s="87" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C165" s="88" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D165" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E165" s="83">
+        <v>2140</v>
+      </c>
+      <c r="F165" s="71" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G165" s="85" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="71">
+        <v>30201</v>
+      </c>
+      <c r="B166" s="87" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C166" s="88" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D166" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E166" s="83">
+        <v>8858</v>
+      </c>
+      <c r="F166" s="71" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G166" s="85" t="s">
+        <v>2479</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="71">
+        <v>30061</v>
+      </c>
+      <c r="B167" s="87" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C167" s="88" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D167" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E167" s="83">
+        <v>47866</v>
+      </c>
+      <c r="F167" s="71" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G167" s="85" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="71">
+        <v>30109</v>
+      </c>
+      <c r="B168" s="87" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C168" s="88" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D168" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" s="83">
+        <v>31177</v>
+      </c>
+      <c r="F168" s="71" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G168" s="85" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="71">
+        <v>30113</v>
+      </c>
+      <c r="B169" s="87" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C169" s="88" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D169" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="83">
+        <v>2474</v>
+      </c>
+      <c r="F169" s="71" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G169" s="85" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="71">
+        <v>30038</v>
+      </c>
+      <c r="B170" s="87" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C170" s="88" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D170" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" s="83">
+        <v>64488</v>
+      </c>
+      <c r="F170" s="71" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G170" s="85" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="71">
+        <v>30004</v>
+      </c>
+      <c r="B171" s="87" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C171" s="88" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D171" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E171" s="83">
+        <v>5057</v>
+      </c>
+      <c r="F171" s="71" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G171" s="85" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="71">
+        <v>30206</v>
+      </c>
+      <c r="B172" s="87" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C172" s="88" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D172" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E172" s="83">
+        <v>28654</v>
+      </c>
+      <c r="F172" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="G172" s="85" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="71">
+        <v>30038</v>
+      </c>
+      <c r="B173" s="87" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C173" s="88" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D173" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E173" s="83">
+        <v>63519</v>
+      </c>
+      <c r="F173" s="71" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G173" s="85" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="71">
+        <v>30038</v>
+      </c>
+      <c r="B174" s="87" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C174" s="88" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D174" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E174" s="83">
+        <v>2311</v>
+      </c>
+      <c r="F174" s="71" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G174" s="85" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="71">
+        <v>30202</v>
+      </c>
+      <c r="B175" s="87" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C175" s="88" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D175" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E175" s="83">
+        <v>6858</v>
+      </c>
+      <c r="F175" s="71" t="s">
+        <v>633</v>
+      </c>
+      <c r="G175" s="85" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="71">
+        <v>30015</v>
+      </c>
+      <c r="B176" s="87" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C176" s="88" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D176" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E176" s="83">
+        <v>13511</v>
+      </c>
+      <c r="F176" s="71" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G176" s="85" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="71">
+        <v>30093</v>
+      </c>
+      <c r="B177" s="87" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C177" s="88" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D177" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E177" s="83">
+        <v>4905</v>
+      </c>
+      <c r="F177" s="71" t="s">
+        <v>2469</v>
+      </c>
+      <c r="G177" s="85" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="71">
+        <v>30114</v>
+      </c>
+      <c r="B178" s="87" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C178" s="88" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D178" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E178" s="83">
+        <v>3311</v>
+      </c>
+      <c r="F178" s="71" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G178" s="85" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27621,8 +31252,78 @@
     <hyperlink ref="H13" r:id="rId38" xr:uid="{867135BF-8464-44C0-825C-D44E57B70B6A}"/>
     <hyperlink ref="H18" r:id="rId39" xr:uid="{9FE6AE5C-BDB7-473D-9192-5B9D5BBB8A87}"/>
     <hyperlink ref="G13" r:id="rId40" xr:uid="{D666D556-BE7F-4F86-A463-F326C8B6137B}"/>
+    <hyperlink ref="G78" r:id="rId41" xr:uid="{9C79502F-5719-4C3A-A8B4-6A9D01547B5F}"/>
+    <hyperlink ref="H78" r:id="rId42" xr:uid="{70225215-7E40-45B9-83EF-5391AA58F48C}"/>
+    <hyperlink ref="G86" r:id="rId43" xr:uid="{9091EC2C-0D5E-48E5-BB66-CC6FB2B90D94}"/>
+    <hyperlink ref="H86" r:id="rId44" xr:uid="{1901FBDE-F3CD-40D2-B80F-4C767A57654D}"/>
+    <hyperlink ref="G93" r:id="rId45" xr:uid="{7680A968-6DBD-4B4A-9B30-0A170EDF5B8F}"/>
+    <hyperlink ref="H93" r:id="rId46" xr:uid="{4313D1A9-BF99-437C-A217-C4EB2B447108}"/>
+    <hyperlink ref="H80" r:id="rId47" xr:uid="{7655EDBF-919F-4A52-96BA-AC9274107AA8}"/>
+    <hyperlink ref="G80" r:id="rId48" xr:uid="{ED4AF129-22BA-4A18-80AE-26615CC950F7}"/>
+    <hyperlink ref="G81" r:id="rId49" xr:uid="{80455BF3-B820-474E-9EC6-D296AC635EA3}"/>
+    <hyperlink ref="G84" r:id="rId50" xr:uid="{C168F9A4-A144-4564-867A-23673E0A4096}"/>
+    <hyperlink ref="G87" r:id="rId51" xr:uid="{A7EA18A6-493A-4E14-93A2-C149EE1F5708}"/>
+    <hyperlink ref="G88" r:id="rId52" xr:uid="{C5299A7B-2E97-4E5F-99D7-6A80C4D53261}"/>
+    <hyperlink ref="H88" r:id="rId53" xr:uid="{0E2349C9-FB99-47C5-8ACA-6B8A4AFE1D44}"/>
+    <hyperlink ref="G91" r:id="rId54" xr:uid="{AA532137-2BFE-4A24-BF03-CFFD50BF7E2A}"/>
+    <hyperlink ref="G92" r:id="rId55" xr:uid="{150B6006-046B-46A9-912E-4D18C61EB6D9}"/>
+    <hyperlink ref="G89" r:id="rId56" xr:uid="{4504287E-2EFA-4EB5-AECE-003B5FBD72AD}"/>
+    <hyperlink ref="H89" r:id="rId57" xr:uid="{F083B2C9-3D9B-4C70-9388-699EBFAC139C}"/>
+    <hyperlink ref="G94" r:id="rId58" xr:uid="{2A2AC3B9-7B08-4E51-A533-F089CB3677A1}"/>
+    <hyperlink ref="H94" r:id="rId59" xr:uid="{927295FA-5991-473E-9657-25C3509770C8}"/>
+    <hyperlink ref="G104" r:id="rId60" xr:uid="{AA5F0C7B-D236-48A2-A80C-7C5C79CC97EE}"/>
+    <hyperlink ref="H104" r:id="rId61" xr:uid="{C6049C9C-DA7A-4162-81E6-08A08627D972}"/>
+    <hyperlink ref="G108" r:id="rId62" xr:uid="{89AE62B1-711B-49B7-B78B-58273F10B6B6}"/>
+    <hyperlink ref="H108" r:id="rId63" xr:uid="{F35F404B-79D4-4FA3-92FA-950591D6269B}"/>
+    <hyperlink ref="H81" r:id="rId64" xr:uid="{B4352FDB-186E-4654-A4E0-F7748F9B4758}"/>
+    <hyperlink ref="H84" r:id="rId65" xr:uid="{AE632C8C-0CBC-42C2-B1FA-62C5383F63D9}"/>
+    <hyperlink ref="H87" r:id="rId66" xr:uid="{9DAB1B5D-D9C2-4280-AF6A-130BC2029358}"/>
+    <hyperlink ref="H91" r:id="rId67" xr:uid="{6216D945-26D7-4BC6-9215-DC8AEC231EF0}"/>
+    <hyperlink ref="H92" r:id="rId68" xr:uid="{87A75110-219D-43E4-8186-B067EE6692D5}"/>
+    <hyperlink ref="G96" r:id="rId69" xr:uid="{93C39F23-7C4D-4524-8CFE-8751C18F8FFE}"/>
+    <hyperlink ref="H96" r:id="rId70" xr:uid="{E2AD7385-932E-4BB8-AB1E-464DDAE58366}"/>
+    <hyperlink ref="G97" r:id="rId71" xr:uid="{D0BEB80A-4A76-47E4-8950-4ED8FE1B614C}"/>
+    <hyperlink ref="H97" r:id="rId72" xr:uid="{29964B6B-DA38-4699-A6ED-02D6BD426C75}"/>
+    <hyperlink ref="G107" r:id="rId73" xr:uid="{D59B7216-EC4B-4663-BA5D-4D9142517F85}"/>
+    <hyperlink ref="H107" r:id="rId74" xr:uid="{D7336B7A-A256-40CC-A19B-EDF682004732}"/>
+    <hyperlink ref="G75" r:id="rId75" xr:uid="{9977430B-28E4-4927-93C0-29FCE8DFC5F4}"/>
+    <hyperlink ref="G74" r:id="rId76" xr:uid="{B625F103-8CF7-4513-9C81-73DC6A690193}"/>
+    <hyperlink ref="H74" r:id="rId77" xr:uid="{25214AB8-4359-4569-8B08-51792AC19E6C}"/>
+    <hyperlink ref="H75" r:id="rId78" xr:uid="{A0128462-332E-425C-8C10-3AB0689FDAB4}"/>
+    <hyperlink ref="G76" r:id="rId79" xr:uid="{112015D9-5CFA-407E-94BC-71D482ED8940}"/>
+    <hyperlink ref="H76" r:id="rId80" xr:uid="{F7D89C85-9A4B-4B22-974A-54CC4B91B09D}"/>
+    <hyperlink ref="G77" r:id="rId81" xr:uid="{5239C659-F939-489F-91C9-B8787A19F24B}"/>
+    <hyperlink ref="H77" r:id="rId82" xr:uid="{BA05C188-205B-4129-983C-5FC57AD6EFAA}"/>
+    <hyperlink ref="G79" r:id="rId83" xr:uid="{FAA494B5-ACC0-4095-BC67-57B35A69CED8}"/>
+    <hyperlink ref="H79" r:id="rId84" xr:uid="{F1FE9E3E-B554-488D-AD25-DC55964E9293}"/>
+    <hyperlink ref="G83" r:id="rId85" xr:uid="{24778A46-3ADB-43A3-B86A-8E827A1D1974}"/>
+    <hyperlink ref="G82" r:id="rId86" xr:uid="{91933EEE-1DD2-40DB-8A43-8EC5B4E6D76C}"/>
+    <hyperlink ref="H82" r:id="rId87" xr:uid="{E4CAC2B1-9940-4A40-B3BB-73E5A7F800F3}"/>
+    <hyperlink ref="H83" r:id="rId88" xr:uid="{2351BF0E-8F05-4546-9356-7B981A5206E6}"/>
+    <hyperlink ref="G85" r:id="rId89" xr:uid="{0E6A4F3F-19C0-4C57-86D0-9842CC1D5E09}"/>
+    <hyperlink ref="H85" r:id="rId90" xr:uid="{8971D8F0-F024-4326-8E0A-D21565ADEA71}"/>
+    <hyperlink ref="G90" r:id="rId91" xr:uid="{7B7EB631-AA0E-452A-97EE-8791BDB3314D}"/>
+    <hyperlink ref="H90" r:id="rId92" xr:uid="{C6D173A4-C711-43D4-A249-E6706511CC61}"/>
+    <hyperlink ref="G95" r:id="rId93" xr:uid="{B20D5119-3DDA-4236-8CF1-EE4F0B6D9CF4}"/>
+    <hyperlink ref="H95" r:id="rId94" xr:uid="{A9B314AD-80DC-4A67-8DE7-22B3A78FADDD}"/>
+    <hyperlink ref="G98" r:id="rId95" xr:uid="{71F89A2D-AC3D-421E-BE60-83704FC19463}"/>
+    <hyperlink ref="H98" r:id="rId96" xr:uid="{19CE5DDB-CDE0-4FEB-80B3-E495F1F8CEF5}"/>
+    <hyperlink ref="G99" r:id="rId97" xr:uid="{F5BE12E9-E3CE-403E-8387-4AB2C58EC281}"/>
+    <hyperlink ref="H99" r:id="rId98" xr:uid="{F452E857-B7DE-4F4B-9FB9-AA0C8630206F}"/>
+    <hyperlink ref="G100" r:id="rId99" xr:uid="{28113348-0876-45E5-ACA4-67079A2B6A12}"/>
+    <hyperlink ref="H100" r:id="rId100" xr:uid="{9C91EF64-EA96-4277-A4C7-C607501C4905}"/>
+    <hyperlink ref="G101" r:id="rId101" xr:uid="{07DED2E7-C148-4507-A395-B8946BFD556C}"/>
+    <hyperlink ref="H101" r:id="rId102" xr:uid="{77660EB1-EE91-43F0-AC1C-1D82987AC85E}"/>
+    <hyperlink ref="G102" r:id="rId103" xr:uid="{F94B1D47-1E38-48D2-912F-D65BD79C52F1}"/>
+    <hyperlink ref="H102" r:id="rId104" xr:uid="{6D3ED18D-3472-4E3A-9A72-58B26A5A8224}"/>
+    <hyperlink ref="G103" r:id="rId105" xr:uid="{ECE46F17-EF42-42DA-92E3-CD4627668A5C}"/>
+    <hyperlink ref="H103" r:id="rId106" xr:uid="{2AFA2D10-F663-49AB-9567-0B59CA30A2AE}"/>
+    <hyperlink ref="G105" r:id="rId107" xr:uid="{0EEFF231-5938-40BF-B1DA-CB8B149BB821}"/>
+    <hyperlink ref="H105" r:id="rId108" xr:uid="{C814DBBE-A2F3-4936-ACBF-90F837535D37}"/>
+    <hyperlink ref="G106" r:id="rId109" xr:uid="{7EFC2770-A866-4FA4-88E3-D1E87D838ED6}"/>
+    <hyperlink ref="H106" r:id="rId110" xr:uid="{500C2465-A7BC-452C-ADBC-22A79C19405E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>